--- a/Femicidios 2020 (2)Actualizado DIC.xlsx
+++ b/Femicidios 2020 (2)Actualizado DIC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macarena/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-RIESGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0FDE64-EC66-0845-ADCA-DFDDEDD28DEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2267A572-0FF0-4DF3-84E9-79667D66D380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="460" windowWidth="24920" windowHeight="13760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FEMICIDIOS 2020" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="RED" sheetId="4" r:id="rId3"/>
     <sheet name="MINMUJER" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -2792,42 +2792,42 @@
   <dimension ref="A1:BX957"/>
   <sheetViews>
     <sheetView topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AQ3" sqref="AQ3:BW45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="42" width="4.5" customWidth="1"/>
-    <col min="43" max="43" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.83203125" customWidth="1"/>
-    <col min="45" max="45" width="13.33203125" customWidth="1"/>
-    <col min="46" max="46" width="11.83203125" customWidth="1"/>
-    <col min="47" max="47" width="27.33203125" customWidth="1"/>
-    <col min="48" max="48" width="14.33203125" customWidth="1"/>
-    <col min="49" max="49" width="9.33203125" customWidth="1"/>
-    <col min="50" max="50" width="14.83203125" customWidth="1"/>
-    <col min="51" max="51" width="42.6640625" customWidth="1"/>
-    <col min="52" max="52" width="15.1640625" customWidth="1"/>
-    <col min="53" max="53" width="21.33203125" customWidth="1"/>
-    <col min="54" max="55" width="16.83203125" customWidth="1"/>
-    <col min="57" max="57" width="27.1640625" customWidth="1"/>
-    <col min="58" max="58" width="7.5" customWidth="1"/>
-    <col min="59" max="59" width="12.6640625" customWidth="1"/>
-    <col min="61" max="61" width="7.5" customWidth="1"/>
-    <col min="62" max="62" width="7.1640625" customWidth="1"/>
-    <col min="63" max="63" width="21.5" customWidth="1"/>
-    <col min="65" max="65" width="5.83203125" customWidth="1"/>
+    <col min="1" max="42" width="4.42578125" customWidth="1"/>
+    <col min="43" max="43" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.85546875" customWidth="1"/>
+    <col min="45" max="45" width="13.28515625" customWidth="1"/>
+    <col min="46" max="46" width="11.85546875" customWidth="1"/>
+    <col min="47" max="47" width="27.28515625" customWidth="1"/>
+    <col min="48" max="48" width="14.28515625" customWidth="1"/>
+    <col min="49" max="49" width="9.28515625" customWidth="1"/>
+    <col min="50" max="50" width="14.85546875" customWidth="1"/>
+    <col min="51" max="51" width="42.7109375" customWidth="1"/>
+    <col min="52" max="52" width="15.140625" customWidth="1"/>
+    <col min="53" max="53" width="21.28515625" customWidth="1"/>
+    <col min="54" max="55" width="16.85546875" customWidth="1"/>
+    <col min="57" max="57" width="27.140625" customWidth="1"/>
+    <col min="58" max="58" width="7.42578125" customWidth="1"/>
+    <col min="59" max="59" width="12.7109375" customWidth="1"/>
+    <col min="61" max="61" width="7.42578125" customWidth="1"/>
+    <col min="62" max="62" width="7.140625" customWidth="1"/>
+    <col min="63" max="63" width="21.42578125" customWidth="1"/>
+    <col min="65" max="65" width="5.85546875" customWidth="1"/>
     <col min="66" max="66" width="12" customWidth="1"/>
-    <col min="67" max="67" width="15.33203125" customWidth="1"/>
-    <col min="68" max="68" width="13.33203125" customWidth="1"/>
+    <col min="67" max="67" width="15.28515625" customWidth="1"/>
+    <col min="68" max="68" width="13.28515625" customWidth="1"/>
     <col min="69" max="69" width="14" customWidth="1"/>
-    <col min="70" max="70" width="17.33203125" customWidth="1"/>
-    <col min="71" max="71" width="24.5" customWidth="1"/>
-    <col min="72" max="72" width="14.5" customWidth="1"/>
-    <col min="73" max="73" width="16.33203125" customWidth="1"/>
-    <col min="74" max="74" width="33.5" customWidth="1"/>
-    <col min="75" max="75" width="34.1640625" customWidth="1"/>
+    <col min="70" max="70" width="17.28515625" customWidth="1"/>
+    <col min="71" max="71" width="24.42578125" customWidth="1"/>
+    <col min="72" max="72" width="14.42578125" customWidth="1"/>
+    <col min="73" max="73" width="16.28515625" customWidth="1"/>
+    <col min="74" max="74" width="33.42578125" customWidth="1"/>
+    <col min="75" max="75" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2988,7 +2988,7 @@
       <c r="BW2" s="7"/>
       <c r="BX2" s="7"/>
     </row>
-    <row r="3" spans="1:76" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:76" s="43" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="BX3" s="12"/>
     </row>
-    <row r="4" spans="1:76" ht="48" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:76" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="BX4" s="19"/>
     </row>
-    <row r="5" spans="1:76" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:76" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="BX5" s="20"/>
     </row>
-    <row r="6" spans="1:76" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:76" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="BX6" s="20"/>
     </row>
-    <row r="7" spans="1:76" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:76" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="BX7" s="20"/>
     </row>
-    <row r="8" spans="1:76" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:76" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="BX8" s="20"/>
     </row>
-    <row r="9" spans="1:76" ht="36" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:76" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="BX9" s="20"/>
     </row>
-    <row r="10" spans="1:76" ht="60" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:76" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="BX10" s="20"/>
     </row>
-    <row r="11" spans="1:76" ht="36" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:76" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -4106,7 +4106,7 @@
       <c r="BW11" s="13"/>
       <c r="BX11" s="20"/>
     </row>
-    <row r="12" spans="1:76" ht="108" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:76" ht="135" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="BX12" s="20"/>
     </row>
-    <row r="13" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="BX13" s="20"/>
     </row>
-    <row r="14" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>11</v>
       </c>
@@ -4474,7 +4474,7 @@
       </c>
       <c r="BX14" s="20"/>
     </row>
-    <row r="15" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>12</v>
       </c>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="BX15" s="20"/>
     </row>
-    <row r="16" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="BX16" s="25"/>
     </row>
-    <row r="17" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>14</v>
       </c>
@@ -4840,7 +4840,7 @@
       </c>
       <c r="BX17" s="20"/>
     </row>
-    <row r="18" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>15</v>
       </c>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="BX18" s="20"/>
     </row>
-    <row r="19" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>16</v>
       </c>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="BX19" s="20"/>
     </row>
-    <row r="20" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>17</v>
       </c>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="BX20" s="20"/>
     </row>
-    <row r="21" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>18</v>
       </c>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="BX21" s="20"/>
     </row>
-    <row r="22" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>19</v>
       </c>
@@ -5452,7 +5452,7 @@
       </c>
       <c r="BX22" s="20"/>
     </row>
-    <row r="23" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>20</v>
       </c>
@@ -5574,7 +5574,7 @@
       </c>
       <c r="BX23" s="20"/>
     </row>
-    <row r="24" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>21</v>
       </c>
@@ -5698,7 +5698,7 @@
       </c>
       <c r="BX24" s="20"/>
     </row>
-    <row r="25" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>22</v>
       </c>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="BX25" s="20"/>
     </row>
-    <row r="26" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>23</v>
       </c>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="BX26" s="20"/>
     </row>
-    <row r="27" spans="1:76" ht="48" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:76" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>24</v>
       </c>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="BX27" s="20"/>
     </row>
-    <row r="28" spans="1:76" ht="48" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:76" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>25</v>
       </c>
@@ -6184,7 +6184,7 @@
       </c>
       <c r="BX28" s="20"/>
     </row>
-    <row r="29" spans="1:76" ht="36" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:76" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>26</v>
       </c>
@@ -6306,7 +6306,7 @@
       </c>
       <c r="BX29" s="20"/>
     </row>
-    <row r="30" spans="1:76" ht="96" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:76" ht="123.75" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>27</v>
       </c>
@@ -6428,7 +6428,7 @@
       </c>
       <c r="BX30" s="20"/>
     </row>
-    <row r="31" spans="1:76" ht="60" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:76" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>28</v>
       </c>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="BX31" s="20"/>
     </row>
-    <row r="32" spans="1:76" ht="60" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:76" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>29</v>
       </c>
@@ -6666,7 +6666,7 @@
       <c r="BW32" s="13"/>
       <c r="BX32" s="20"/>
     </row>
-    <row r="33" spans="1:76" ht="24" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:76" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>30</v>
       </c>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="BX33" s="20"/>
     </row>
-    <row r="34" spans="1:76" ht="72" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:76" ht="90" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>31</v>
       </c>
@@ -6908,7 +6908,7 @@
       </c>
       <c r="BX34" s="20"/>
     </row>
-    <row r="35" spans="1:76" ht="36" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:76" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>32</v>
       </c>
@@ -7020,7 +7020,7 @@
       </c>
       <c r="BX35" s="20"/>
     </row>
-    <row r="36" spans="1:76" ht="13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
@@ -7098,7 +7098,7 @@
       <c r="BW36" s="13"/>
       <c r="BX36" s="20"/>
     </row>
-    <row r="37" spans="1:76" ht="60" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:76" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
         <v>1</v>
       </c>
@@ -7210,7 +7210,7 @@
       <c r="BW37" s="29"/>
       <c r="BX37" s="20"/>
     </row>
-    <row r="38" spans="1:76" ht="36" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:76" ht="45" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
         <v>2</v>
       </c>
@@ -7328,7 +7328,7 @@
       </c>
       <c r="BX38" s="20"/>
     </row>
-    <row r="39" spans="1:76" ht="48" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:76" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
         <v>3</v>
       </c>
@@ -7442,7 +7442,7 @@
       <c r="BW39" s="13"/>
       <c r="BX39" s="20"/>
     </row>
-    <row r="40" spans="1:76" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -7520,7 +7520,7 @@
       <c r="BW40" s="13"/>
       <c r="BX40" s="20"/>
     </row>
-    <row r="41" spans="1:76" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -7598,7 +7598,7 @@
       <c r="BW41" s="13"/>
       <c r="BX41" s="20"/>
     </row>
-    <row r="42" spans="1:76" ht="48" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:76" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <v>1</v>
       </c>
@@ -7714,7 +7714,7 @@
       </c>
       <c r="BX42" s="20"/>
     </row>
-    <row r="43" spans="1:76" ht="60" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:76" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
         <v>2</v>
       </c>
@@ -7822,7 +7822,7 @@
       </c>
       <c r="BX43" s="20"/>
     </row>
-    <row r="44" spans="1:76" ht="60" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:76" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <v>3</v>
       </c>
@@ -7930,7 +7930,7 @@
       </c>
       <c r="BX44" s="20"/>
     </row>
-    <row r="45" spans="1:76" ht="36" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:76" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
         <v>4</v>
       </c>
@@ -8042,4562 +8042,4562 @@
       </c>
       <c r="BX45" s="20"/>
     </row>
-    <row r="46" spans="1:76" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR46" s="32"/>
       <c r="AV46" s="32"/>
       <c r="AY46" s="33"/>
     </row>
-    <row r="47" spans="1:76" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR47" s="32"/>
       <c r="AV47" s="32"/>
       <c r="AY47" s="33"/>
     </row>
-    <row r="48" spans="1:76" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:76" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR48" s="32"/>
       <c r="AV48" s="32"/>
       <c r="AY48" s="33"/>
     </row>
-    <row r="49" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR49" s="32"/>
       <c r="AV49" s="32"/>
       <c r="AY49" s="33"/>
     </row>
-    <row r="50" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR50" s="32"/>
       <c r="AV50" s="32"/>
       <c r="AY50" s="33"/>
     </row>
-    <row r="51" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR51" s="32"/>
       <c r="AV51" s="32"/>
       <c r="AY51" s="33"/>
     </row>
-    <row r="52" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR52" s="32"/>
       <c r="AV52" s="32"/>
       <c r="AY52" s="33"/>
     </row>
-    <row r="53" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="53" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR53" s="32"/>
       <c r="AV53" s="32"/>
       <c r="AY53" s="33"/>
     </row>
-    <row r="54" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR54" s="32"/>
       <c r="AV54" s="32"/>
       <c r="AY54" s="33"/>
     </row>
-    <row r="55" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR55" s="32"/>
       <c r="AV55" s="32"/>
       <c r="AY55" s="33"/>
     </row>
-    <row r="56" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR56" s="32"/>
       <c r="AV56" s="32"/>
       <c r="AY56" s="33"/>
     </row>
-    <row r="57" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR57" s="32"/>
       <c r="AV57" s="32"/>
       <c r="AY57" s="33"/>
     </row>
-    <row r="58" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR58" s="32"/>
       <c r="AV58" s="32"/>
       <c r="AY58" s="33"/>
     </row>
-    <row r="59" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR59" s="32"/>
       <c r="AV59" s="32"/>
       <c r="AY59" s="33"/>
     </row>
-    <row r="60" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR60" s="32"/>
       <c r="AV60" s="32"/>
       <c r="AY60" s="33"/>
     </row>
-    <row r="61" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR61" s="32"/>
       <c r="AV61" s="32"/>
       <c r="AY61" s="33"/>
     </row>
-    <row r="62" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR62" s="32"/>
       <c r="AV62" s="32"/>
       <c r="AY62" s="33"/>
     </row>
-    <row r="63" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR63" s="32"/>
       <c r="AV63" s="32"/>
       <c r="AY63" s="33"/>
     </row>
-    <row r="64" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR64" s="32"/>
       <c r="AV64" s="32"/>
       <c r="AY64" s="33"/>
     </row>
-    <row r="65" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR65" s="32"/>
       <c r="AV65" s="32"/>
       <c r="AY65" s="33"/>
     </row>
-    <row r="66" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR66" s="32"/>
       <c r="AV66" s="32"/>
       <c r="AY66" s="33"/>
     </row>
-    <row r="67" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR67" s="32"/>
       <c r="AV67" s="32"/>
       <c r="AY67" s="33"/>
     </row>
-    <row r="68" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR68" s="32"/>
       <c r="AV68" s="32"/>
       <c r="AY68" s="33"/>
     </row>
-    <row r="69" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR69" s="32"/>
       <c r="AV69" s="32"/>
       <c r="AY69" s="33"/>
     </row>
-    <row r="70" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR70" s="32"/>
       <c r="AV70" s="32"/>
       <c r="AY70" s="33"/>
     </row>
-    <row r="71" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR71" s="32"/>
       <c r="AV71" s="32"/>
       <c r="AY71" s="33"/>
     </row>
-    <row r="72" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR72" s="32"/>
       <c r="AV72" s="32"/>
       <c r="AY72" s="33"/>
     </row>
-    <row r="73" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR73" s="32"/>
       <c r="AV73" s="32"/>
       <c r="AY73" s="33"/>
     </row>
-    <row r="74" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR74" s="32"/>
       <c r="AV74" s="32"/>
       <c r="AY74" s="33"/>
     </row>
-    <row r="75" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR75" s="32"/>
       <c r="AV75" s="32"/>
       <c r="AY75" s="33"/>
     </row>
-    <row r="76" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR76" s="32"/>
       <c r="AV76" s="32"/>
       <c r="AY76" s="33"/>
     </row>
-    <row r="77" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR77" s="32"/>
       <c r="AV77" s="32"/>
       <c r="AY77" s="33"/>
     </row>
-    <row r="78" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR78" s="32"/>
       <c r="AV78" s="32"/>
       <c r="AY78" s="33"/>
     </row>
-    <row r="79" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR79" s="32"/>
       <c r="AV79" s="32"/>
       <c r="AY79" s="33"/>
     </row>
-    <row r="80" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR80" s="32"/>
       <c r="AV80" s="32"/>
       <c r="AY80" s="33"/>
     </row>
-    <row r="81" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR81" s="32"/>
       <c r="AV81" s="32"/>
       <c r="AY81" s="33"/>
     </row>
-    <row r="82" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR82" s="32"/>
       <c r="AV82" s="32"/>
       <c r="AY82" s="33"/>
     </row>
-    <row r="83" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR83" s="32"/>
       <c r="AV83" s="32"/>
       <c r="AY83" s="33"/>
     </row>
-    <row r="84" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR84" s="32"/>
       <c r="AV84" s="32"/>
       <c r="AY84" s="33"/>
     </row>
-    <row r="85" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR85" s="32"/>
       <c r="AV85" s="32"/>
       <c r="AY85" s="33"/>
     </row>
-    <row r="86" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR86" s="32"/>
       <c r="AV86" s="32"/>
       <c r="AY86" s="33"/>
     </row>
-    <row r="87" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR87" s="32"/>
       <c r="AV87" s="32"/>
       <c r="AY87" s="33"/>
     </row>
-    <row r="88" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR88" s="32"/>
       <c r="AV88" s="32"/>
       <c r="AY88" s="33"/>
     </row>
-    <row r="89" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR89" s="32"/>
       <c r="AV89" s="32"/>
       <c r="AY89" s="33"/>
     </row>
-    <row r="90" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR90" s="32"/>
       <c r="AV90" s="32"/>
       <c r="AY90" s="33"/>
     </row>
-    <row r="91" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR91" s="32"/>
       <c r="AV91" s="32"/>
       <c r="AY91" s="33"/>
     </row>
-    <row r="92" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR92" s="32"/>
       <c r="AV92" s="32"/>
       <c r="AY92" s="33"/>
     </row>
-    <row r="93" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR93" s="32"/>
       <c r="AV93" s="32"/>
       <c r="AY93" s="33"/>
     </row>
-    <row r="94" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR94" s="32"/>
       <c r="AV94" s="32"/>
       <c r="AY94" s="33"/>
     </row>
-    <row r="95" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR95" s="32"/>
       <c r="AV95" s="32"/>
       <c r="AY95" s="33"/>
     </row>
-    <row r="96" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR96" s="32"/>
       <c r="AV96" s="32"/>
       <c r="AY96" s="33"/>
     </row>
-    <row r="97" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR97" s="32"/>
       <c r="AV97" s="32"/>
       <c r="AY97" s="33"/>
     </row>
-    <row r="98" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR98" s="32"/>
       <c r="AV98" s="32"/>
       <c r="AY98" s="33"/>
     </row>
-    <row r="99" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR99" s="32"/>
       <c r="AV99" s="32"/>
       <c r="AY99" s="33"/>
     </row>
-    <row r="100" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR100" s="32"/>
       <c r="AV100" s="32"/>
       <c r="AY100" s="33"/>
     </row>
-    <row r="101" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR101" s="32"/>
       <c r="AV101" s="32"/>
       <c r="AY101" s="33"/>
     </row>
-    <row r="102" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR102" s="32"/>
       <c r="AV102" s="32"/>
       <c r="AY102" s="33"/>
     </row>
-    <row r="103" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR103" s="32"/>
       <c r="AV103" s="32"/>
       <c r="AY103" s="33"/>
     </row>
-    <row r="104" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR104" s="32"/>
       <c r="AV104" s="32"/>
       <c r="AY104" s="33"/>
     </row>
-    <row r="105" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR105" s="32"/>
       <c r="AV105" s="32"/>
       <c r="AY105" s="33"/>
     </row>
-    <row r="106" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR106" s="32"/>
       <c r="AV106" s="32"/>
       <c r="AY106" s="33"/>
     </row>
-    <row r="107" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR107" s="32"/>
       <c r="AV107" s="32"/>
       <c r="AY107" s="33"/>
     </row>
-    <row r="108" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR108" s="32"/>
       <c r="AV108" s="32"/>
       <c r="AY108" s="33"/>
     </row>
-    <row r="109" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR109" s="32"/>
       <c r="AV109" s="32"/>
       <c r="AY109" s="33"/>
     </row>
-    <row r="110" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR110" s="32"/>
       <c r="AV110" s="32"/>
       <c r="AY110" s="33"/>
     </row>
-    <row r="111" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR111" s="32"/>
       <c r="AV111" s="32"/>
       <c r="AY111" s="33"/>
     </row>
-    <row r="112" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR112" s="32"/>
       <c r="AV112" s="32"/>
       <c r="AY112" s="33"/>
     </row>
-    <row r="113" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="113" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR113" s="32"/>
       <c r="AV113" s="32"/>
       <c r="AY113" s="33"/>
     </row>
-    <row r="114" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR114" s="32"/>
       <c r="AV114" s="32"/>
       <c r="AY114" s="33"/>
     </row>
-    <row r="115" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR115" s="32"/>
       <c r="AV115" s="32"/>
       <c r="AY115" s="33"/>
     </row>
-    <row r="116" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR116" s="32"/>
       <c r="AV116" s="32"/>
       <c r="AY116" s="33"/>
     </row>
-    <row r="117" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR117" s="32"/>
       <c r="AV117" s="32"/>
       <c r="AY117" s="33"/>
     </row>
-    <row r="118" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR118" s="32"/>
       <c r="AV118" s="32"/>
       <c r="AY118" s="33"/>
     </row>
-    <row r="119" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="119" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR119" s="32"/>
       <c r="AV119" s="32"/>
       <c r="AY119" s="33"/>
     </row>
-    <row r="120" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="120" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR120" s="32"/>
       <c r="AV120" s="32"/>
       <c r="AY120" s="33"/>
     </row>
-    <row r="121" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR121" s="32"/>
       <c r="AV121" s="32"/>
       <c r="AY121" s="33"/>
     </row>
-    <row r="122" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="122" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR122" s="32"/>
       <c r="AV122" s="32"/>
       <c r="AY122" s="33"/>
     </row>
-    <row r="123" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR123" s="32"/>
       <c r="AV123" s="32"/>
       <c r="AY123" s="33"/>
     </row>
-    <row r="124" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="124" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR124" s="32"/>
       <c r="AV124" s="32"/>
       <c r="AY124" s="33"/>
     </row>
-    <row r="125" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="125" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR125" s="32"/>
       <c r="AV125" s="32"/>
       <c r="AY125" s="33"/>
     </row>
-    <row r="126" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR126" s="32"/>
       <c r="AV126" s="32"/>
       <c r="AY126" s="33"/>
     </row>
-    <row r="127" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="127" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR127" s="32"/>
       <c r="AV127" s="32"/>
       <c r="AY127" s="33"/>
     </row>
-    <row r="128" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="128" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR128" s="32"/>
       <c r="AV128" s="32"/>
       <c r="AY128" s="33"/>
     </row>
-    <row r="129" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="129" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR129" s="32"/>
       <c r="AV129" s="32"/>
       <c r="AY129" s="33"/>
     </row>
-    <row r="130" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR130" s="32"/>
       <c r="AV130" s="32"/>
       <c r="AY130" s="33"/>
     </row>
-    <row r="131" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="131" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR131" s="32"/>
       <c r="AV131" s="32"/>
       <c r="AY131" s="33"/>
     </row>
-    <row r="132" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR132" s="32"/>
       <c r="AV132" s="32"/>
       <c r="AY132" s="33"/>
     </row>
-    <row r="133" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR133" s="32"/>
       <c r="AV133" s="32"/>
       <c r="AY133" s="33"/>
     </row>
-    <row r="134" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR134" s="32"/>
       <c r="AV134" s="32"/>
       <c r="AY134" s="33"/>
     </row>
-    <row r="135" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR135" s="32"/>
       <c r="AV135" s="32"/>
       <c r="AY135" s="33"/>
     </row>
-    <row r="136" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR136" s="32"/>
       <c r="AV136" s="32"/>
       <c r="AY136" s="33"/>
     </row>
-    <row r="137" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="137" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR137" s="32"/>
       <c r="AV137" s="32"/>
       <c r="AY137" s="33"/>
     </row>
-    <row r="138" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="138" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR138" s="32"/>
       <c r="AV138" s="32"/>
       <c r="AY138" s="33"/>
     </row>
-    <row r="139" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR139" s="32"/>
       <c r="AV139" s="32"/>
       <c r="AY139" s="33"/>
     </row>
-    <row r="140" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="140" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR140" s="32"/>
       <c r="AV140" s="32"/>
       <c r="AY140" s="33"/>
     </row>
-    <row r="141" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR141" s="32"/>
       <c r="AV141" s="32"/>
       <c r="AY141" s="33"/>
     </row>
-    <row r="142" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR142" s="32"/>
       <c r="AV142" s="32"/>
       <c r="AY142" s="33"/>
     </row>
-    <row r="143" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="143" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR143" s="32"/>
       <c r="AV143" s="32"/>
       <c r="AY143" s="33"/>
     </row>
-    <row r="144" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR144" s="32"/>
       <c r="AV144" s="32"/>
       <c r="AY144" s="33"/>
     </row>
-    <row r="145" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR145" s="32"/>
       <c r="AV145" s="32"/>
       <c r="AY145" s="33"/>
     </row>
-    <row r="146" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="146" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR146" s="32"/>
       <c r="AV146" s="32"/>
       <c r="AY146" s="33"/>
     </row>
-    <row r="147" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR147" s="32"/>
       <c r="AV147" s="32"/>
       <c r="AY147" s="33"/>
     </row>
-    <row r="148" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR148" s="32"/>
       <c r="AV148" s="32"/>
       <c r="AY148" s="33"/>
     </row>
-    <row r="149" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="149" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR149" s="32"/>
       <c r="AV149" s="32"/>
       <c r="AY149" s="33"/>
     </row>
-    <row r="150" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR150" s="32"/>
       <c r="AV150" s="32"/>
       <c r="AY150" s="33"/>
     </row>
-    <row r="151" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR151" s="32"/>
       <c r="AV151" s="32"/>
       <c r="AY151" s="33"/>
     </row>
-    <row r="152" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR152" s="32"/>
       <c r="AV152" s="32"/>
       <c r="AY152" s="33"/>
     </row>
-    <row r="153" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR153" s="32"/>
       <c r="AV153" s="32"/>
       <c r="AY153" s="33"/>
     </row>
-    <row r="154" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR154" s="32"/>
       <c r="AV154" s="32"/>
       <c r="AY154" s="33"/>
     </row>
-    <row r="155" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="155" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR155" s="32"/>
       <c r="AV155" s="32"/>
       <c r="AY155" s="33"/>
     </row>
-    <row r="156" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR156" s="32"/>
       <c r="AV156" s="32"/>
       <c r="AY156" s="33"/>
     </row>
-    <row r="157" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR157" s="32"/>
       <c r="AV157" s="32"/>
       <c r="AY157" s="33"/>
     </row>
-    <row r="158" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="158" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR158" s="32"/>
       <c r="AV158" s="32"/>
       <c r="AY158" s="33"/>
     </row>
-    <row r="159" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR159" s="32"/>
       <c r="AV159" s="32"/>
       <c r="AY159" s="33"/>
     </row>
-    <row r="160" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR160" s="32"/>
       <c r="AV160" s="32"/>
       <c r="AY160" s="33"/>
     </row>
-    <row r="161" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="161" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR161" s="32"/>
       <c r="AV161" s="32"/>
       <c r="AY161" s="33"/>
     </row>
-    <row r="162" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="162" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR162" s="32"/>
       <c r="AV162" s="32"/>
       <c r="AY162" s="33"/>
     </row>
-    <row r="163" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR163" s="32"/>
       <c r="AV163" s="32"/>
       <c r="AY163" s="33"/>
     </row>
-    <row r="164" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR164" s="32"/>
       <c r="AV164" s="32"/>
       <c r="AY164" s="33"/>
     </row>
-    <row r="165" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR165" s="32"/>
       <c r="AV165" s="32"/>
       <c r="AY165" s="33"/>
     </row>
-    <row r="166" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="166" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR166" s="32"/>
       <c r="AV166" s="32"/>
       <c r="AY166" s="33"/>
     </row>
-    <row r="167" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="167" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR167" s="32"/>
       <c r="AV167" s="32"/>
       <c r="AY167" s="33"/>
     </row>
-    <row r="168" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="168" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR168" s="32"/>
       <c r="AV168" s="32"/>
       <c r="AY168" s="33"/>
     </row>
-    <row r="169" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="169" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR169" s="32"/>
       <c r="AV169" s="32"/>
       <c r="AY169" s="33"/>
     </row>
-    <row r="170" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="170" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR170" s="32"/>
       <c r="AV170" s="32"/>
       <c r="AY170" s="33"/>
     </row>
-    <row r="171" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="171" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR171" s="32"/>
       <c r="AV171" s="32"/>
       <c r="AY171" s="33"/>
     </row>
-    <row r="172" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="172" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR172" s="32"/>
       <c r="AV172" s="32"/>
       <c r="AY172" s="33"/>
     </row>
-    <row r="173" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="173" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR173" s="32"/>
       <c r="AV173" s="32"/>
       <c r="AY173" s="33"/>
     </row>
-    <row r="174" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="174" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR174" s="32"/>
       <c r="AV174" s="32"/>
       <c r="AY174" s="33"/>
     </row>
-    <row r="175" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR175" s="32"/>
       <c r="AV175" s="32"/>
       <c r="AY175" s="33"/>
     </row>
-    <row r="176" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="176" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR176" s="32"/>
       <c r="AV176" s="32"/>
       <c r="AY176" s="33"/>
     </row>
-    <row r="177" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR177" s="32"/>
       <c r="AV177" s="32"/>
       <c r="AY177" s="33"/>
     </row>
-    <row r="178" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="178" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR178" s="32"/>
       <c r="AV178" s="32"/>
       <c r="AY178" s="33"/>
     </row>
-    <row r="179" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="179" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR179" s="32"/>
       <c r="AV179" s="32"/>
       <c r="AY179" s="33"/>
     </row>
-    <row r="180" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR180" s="32"/>
       <c r="AV180" s="32"/>
       <c r="AY180" s="33"/>
     </row>
-    <row r="181" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="181" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR181" s="32"/>
       <c r="AV181" s="32"/>
       <c r="AY181" s="33"/>
     </row>
-    <row r="182" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="182" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR182" s="32"/>
       <c r="AV182" s="32"/>
       <c r="AY182" s="33"/>
     </row>
-    <row r="183" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="183" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR183" s="32"/>
       <c r="AV183" s="32"/>
       <c r="AY183" s="33"/>
     </row>
-    <row r="184" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="184" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR184" s="32"/>
       <c r="AV184" s="32"/>
       <c r="AY184" s="33"/>
     </row>
-    <row r="185" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="185" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR185" s="32"/>
       <c r="AV185" s="32"/>
       <c r="AY185" s="33"/>
     </row>
-    <row r="186" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR186" s="32"/>
       <c r="AV186" s="32"/>
       <c r="AY186" s="33"/>
     </row>
-    <row r="187" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR187" s="32"/>
       <c r="AV187" s="32"/>
       <c r="AY187" s="33"/>
     </row>
-    <row r="188" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="188" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR188" s="32"/>
       <c r="AV188" s="32"/>
       <c r="AY188" s="33"/>
     </row>
-    <row r="189" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR189" s="32"/>
       <c r="AV189" s="32"/>
       <c r="AY189" s="33"/>
     </row>
-    <row r="190" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR190" s="32"/>
       <c r="AV190" s="32"/>
       <c r="AY190" s="33"/>
     </row>
-    <row r="191" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="191" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR191" s="32"/>
       <c r="AV191" s="32"/>
       <c r="AY191" s="33"/>
     </row>
-    <row r="192" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="192" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR192" s="32"/>
       <c r="AV192" s="32"/>
       <c r="AY192" s="33"/>
     </row>
-    <row r="193" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR193" s="32"/>
       <c r="AV193" s="32"/>
       <c r="AY193" s="33"/>
     </row>
-    <row r="194" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="194" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR194" s="32"/>
       <c r="AV194" s="32"/>
       <c r="AY194" s="33"/>
     </row>
-    <row r="195" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR195" s="32"/>
       <c r="AV195" s="32"/>
       <c r="AY195" s="33"/>
     </row>
-    <row r="196" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR196" s="32"/>
       <c r="AV196" s="32"/>
       <c r="AY196" s="33"/>
     </row>
-    <row r="197" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR197" s="32"/>
       <c r="AV197" s="32"/>
       <c r="AY197" s="33"/>
     </row>
-    <row r="198" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR198" s="32"/>
       <c r="AV198" s="32"/>
       <c r="AY198" s="33"/>
     </row>
-    <row r="199" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR199" s="32"/>
       <c r="AV199" s="32"/>
       <c r="AY199" s="33"/>
     </row>
-    <row r="200" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR200" s="32"/>
       <c r="AV200" s="32"/>
       <c r="AY200" s="33"/>
     </row>
-    <row r="201" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="201" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR201" s="32"/>
       <c r="AV201" s="32"/>
       <c r="AY201" s="33"/>
     </row>
-    <row r="202" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="202" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR202" s="32"/>
       <c r="AV202" s="32"/>
       <c r="AY202" s="33"/>
     </row>
-    <row r="203" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="203" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR203" s="32"/>
       <c r="AV203" s="32"/>
       <c r="AY203" s="33"/>
     </row>
-    <row r="204" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="204" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR204" s="32"/>
       <c r="AV204" s="32"/>
       <c r="AY204" s="33"/>
     </row>
-    <row r="205" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="205" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR205" s="32"/>
       <c r="AV205" s="32"/>
       <c r="AY205" s="33"/>
     </row>
-    <row r="206" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="206" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR206" s="32"/>
       <c r="AV206" s="32"/>
       <c r="AY206" s="33"/>
     </row>
-    <row r="207" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="207" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR207" s="32"/>
       <c r="AV207" s="32"/>
       <c r="AY207" s="33"/>
     </row>
-    <row r="208" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="208" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR208" s="32"/>
       <c r="AV208" s="32"/>
       <c r="AY208" s="33"/>
     </row>
-    <row r="209" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="209" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR209" s="32"/>
       <c r="AV209" s="32"/>
       <c r="AY209" s="33"/>
     </row>
-    <row r="210" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR210" s="32"/>
       <c r="AV210" s="32"/>
       <c r="AY210" s="33"/>
     </row>
-    <row r="211" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="211" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR211" s="32"/>
       <c r="AV211" s="32"/>
       <c r="AY211" s="33"/>
     </row>
-    <row r="212" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="212" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR212" s="32"/>
       <c r="AV212" s="32"/>
       <c r="AY212" s="33"/>
     </row>
-    <row r="213" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR213" s="32"/>
       <c r="AV213" s="32"/>
       <c r="AY213" s="33"/>
     </row>
-    <row r="214" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="214" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR214" s="32"/>
       <c r="AV214" s="32"/>
       <c r="AY214" s="33"/>
     </row>
-    <row r="215" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="215" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR215" s="32"/>
       <c r="AV215" s="32"/>
       <c r="AY215" s="33"/>
     </row>
-    <row r="216" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="216" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR216" s="32"/>
       <c r="AV216" s="32"/>
       <c r="AY216" s="33"/>
     </row>
-    <row r="217" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR217" s="32"/>
       <c r="AV217" s="32"/>
       <c r="AY217" s="33"/>
     </row>
-    <row r="218" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="218" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR218" s="32"/>
       <c r="AV218" s="32"/>
       <c r="AY218" s="33"/>
     </row>
-    <row r="219" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="219" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR219" s="32"/>
       <c r="AV219" s="32"/>
       <c r="AY219" s="33"/>
     </row>
-    <row r="220" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="220" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR220" s="32"/>
       <c r="AV220" s="32"/>
       <c r="AY220" s="33"/>
     </row>
-    <row r="221" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="221" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR221" s="32"/>
       <c r="AV221" s="32"/>
       <c r="AY221" s="33"/>
     </row>
-    <row r="222" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="222" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR222" s="32"/>
       <c r="AV222" s="32"/>
       <c r="AY222" s="33"/>
     </row>
-    <row r="223" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="223" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR223" s="32"/>
       <c r="AV223" s="32"/>
       <c r="AY223" s="33"/>
     </row>
-    <row r="224" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="224" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR224" s="32"/>
       <c r="AV224" s="32"/>
       <c r="AY224" s="33"/>
     </row>
-    <row r="225" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="225" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR225" s="32"/>
       <c r="AV225" s="32"/>
       <c r="AY225" s="33"/>
     </row>
-    <row r="226" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="226" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR226" s="32"/>
       <c r="AV226" s="32"/>
       <c r="AY226" s="33"/>
     </row>
-    <row r="227" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR227" s="32"/>
       <c r="AV227" s="32"/>
       <c r="AY227" s="33"/>
     </row>
-    <row r="228" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="228" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR228" s="32"/>
       <c r="AV228" s="32"/>
       <c r="AY228" s="33"/>
     </row>
-    <row r="229" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="229" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR229" s="32"/>
       <c r="AV229" s="32"/>
       <c r="AY229" s="33"/>
     </row>
-    <row r="230" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="230" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR230" s="32"/>
       <c r="AV230" s="32"/>
       <c r="AY230" s="33"/>
     </row>
-    <row r="231" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="231" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR231" s="32"/>
       <c r="AV231" s="32"/>
       <c r="AY231" s="33"/>
     </row>
-    <row r="232" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="232" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR232" s="32"/>
       <c r="AV232" s="32"/>
       <c r="AY232" s="33"/>
     </row>
-    <row r="233" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="233" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR233" s="32"/>
       <c r="AV233" s="32"/>
       <c r="AY233" s="33"/>
     </row>
-    <row r="234" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="234" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR234" s="32"/>
       <c r="AV234" s="32"/>
       <c r="AY234" s="33"/>
     </row>
-    <row r="235" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="235" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR235" s="32"/>
       <c r="AV235" s="32"/>
       <c r="AY235" s="33"/>
     </row>
-    <row r="236" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="236" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR236" s="32"/>
       <c r="AV236" s="32"/>
       <c r="AY236" s="33"/>
     </row>
-    <row r="237" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="237" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR237" s="32"/>
       <c r="AV237" s="32"/>
       <c r="AY237" s="33"/>
     </row>
-    <row r="238" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="238" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR238" s="32"/>
       <c r="AV238" s="32"/>
       <c r="AY238" s="33"/>
     </row>
-    <row r="239" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="239" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR239" s="32"/>
       <c r="AV239" s="32"/>
       <c r="AY239" s="33"/>
     </row>
-    <row r="240" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR240" s="32"/>
       <c r="AV240" s="32"/>
       <c r="AY240" s="33"/>
     </row>
-    <row r="241" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="241" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR241" s="32"/>
       <c r="AV241" s="32"/>
       <c r="AY241" s="33"/>
     </row>
-    <row r="242" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="242" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR242" s="32"/>
       <c r="AV242" s="32"/>
       <c r="AY242" s="33"/>
     </row>
-    <row r="243" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="243" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR243" s="32"/>
       <c r="AV243" s="32"/>
       <c r="AY243" s="33"/>
     </row>
-    <row r="244" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="244" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR244" s="32"/>
       <c r="AV244" s="32"/>
       <c r="AY244" s="33"/>
     </row>
-    <row r="245" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="245" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR245" s="32"/>
       <c r="AV245" s="32"/>
       <c r="AY245" s="33"/>
     </row>
-    <row r="246" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="246" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR246" s="32"/>
       <c r="AV246" s="32"/>
       <c r="AY246" s="33"/>
     </row>
-    <row r="247" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="247" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR247" s="32"/>
       <c r="AV247" s="32"/>
       <c r="AY247" s="33"/>
     </row>
-    <row r="248" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="248" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR248" s="32"/>
       <c r="AV248" s="32"/>
       <c r="AY248" s="33"/>
     </row>
-    <row r="249" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="249" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR249" s="32"/>
       <c r="AV249" s="32"/>
       <c r="AY249" s="33"/>
     </row>
-    <row r="250" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="250" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR250" s="32"/>
       <c r="AV250" s="32"/>
       <c r="AY250" s="33"/>
     </row>
-    <row r="251" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="251" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR251" s="32"/>
       <c r="AV251" s="32"/>
       <c r="AY251" s="33"/>
     </row>
-    <row r="252" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="252" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR252" s="32"/>
       <c r="AV252" s="32"/>
       <c r="AY252" s="33"/>
     </row>
-    <row r="253" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="253" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR253" s="32"/>
       <c r="AV253" s="32"/>
       <c r="AY253" s="33"/>
     </row>
-    <row r="254" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="254" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR254" s="32"/>
       <c r="AV254" s="32"/>
       <c r="AY254" s="33"/>
     </row>
-    <row r="255" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="255" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR255" s="32"/>
       <c r="AV255" s="32"/>
       <c r="AY255" s="33"/>
     </row>
-    <row r="256" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="256" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR256" s="32"/>
       <c r="AV256" s="32"/>
       <c r="AY256" s="33"/>
     </row>
-    <row r="257" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="257" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR257" s="32"/>
       <c r="AV257" s="32"/>
       <c r="AY257" s="33"/>
     </row>
-    <row r="258" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="258" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR258" s="32"/>
       <c r="AV258" s="32"/>
       <c r="AY258" s="33"/>
     </row>
-    <row r="259" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="259" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR259" s="32"/>
       <c r="AV259" s="32"/>
       <c r="AY259" s="33"/>
     </row>
-    <row r="260" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="260" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR260" s="32"/>
       <c r="AV260" s="32"/>
       <c r="AY260" s="33"/>
     </row>
-    <row r="261" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="261" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR261" s="32"/>
       <c r="AV261" s="32"/>
       <c r="AY261" s="33"/>
     </row>
-    <row r="262" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="262" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR262" s="32"/>
       <c r="AV262" s="32"/>
       <c r="AY262" s="33"/>
     </row>
-    <row r="263" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="263" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR263" s="32"/>
       <c r="AV263" s="32"/>
       <c r="AY263" s="33"/>
     </row>
-    <row r="264" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="264" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR264" s="32"/>
       <c r="AV264" s="32"/>
       <c r="AY264" s="33"/>
     </row>
-    <row r="265" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="265" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR265" s="32"/>
       <c r="AV265" s="32"/>
       <c r="AY265" s="33"/>
     </row>
-    <row r="266" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="266" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR266" s="32"/>
       <c r="AV266" s="32"/>
       <c r="AY266" s="33"/>
     </row>
-    <row r="267" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="267" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR267" s="32"/>
       <c r="AV267" s="32"/>
       <c r="AY267" s="33"/>
     </row>
-    <row r="268" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="268" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR268" s="32"/>
       <c r="AV268" s="32"/>
       <c r="AY268" s="33"/>
     </row>
-    <row r="269" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="269" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR269" s="32"/>
       <c r="AV269" s="32"/>
       <c r="AY269" s="33"/>
     </row>
-    <row r="270" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="270" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR270" s="32"/>
       <c r="AV270" s="32"/>
       <c r="AY270" s="33"/>
     </row>
-    <row r="271" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="271" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR271" s="32"/>
       <c r="AV271" s="32"/>
       <c r="AY271" s="33"/>
     </row>
-    <row r="272" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="272" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR272" s="32"/>
       <c r="AV272" s="32"/>
       <c r="AY272" s="33"/>
     </row>
-    <row r="273" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="273" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR273" s="32"/>
       <c r="AV273" s="32"/>
       <c r="AY273" s="33"/>
     </row>
-    <row r="274" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="274" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR274" s="32"/>
       <c r="AV274" s="32"/>
       <c r="AY274" s="33"/>
     </row>
-    <row r="275" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="275" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR275" s="32"/>
       <c r="AV275" s="32"/>
       <c r="AY275" s="33"/>
     </row>
-    <row r="276" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="276" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR276" s="32"/>
       <c r="AV276" s="32"/>
       <c r="AY276" s="33"/>
     </row>
-    <row r="277" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="277" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR277" s="32"/>
       <c r="AV277" s="32"/>
       <c r="AY277" s="33"/>
     </row>
-    <row r="278" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="278" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR278" s="32"/>
       <c r="AV278" s="32"/>
       <c r="AY278" s="33"/>
     </row>
-    <row r="279" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="279" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR279" s="32"/>
       <c r="AV279" s="32"/>
       <c r="AY279" s="33"/>
     </row>
-    <row r="280" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="280" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR280" s="32"/>
       <c r="AV280" s="32"/>
       <c r="AY280" s="33"/>
     </row>
-    <row r="281" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="281" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR281" s="32"/>
       <c r="AV281" s="32"/>
       <c r="AY281" s="33"/>
     </row>
-    <row r="282" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="282" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR282" s="32"/>
       <c r="AV282" s="32"/>
       <c r="AY282" s="33"/>
     </row>
-    <row r="283" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="283" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR283" s="32"/>
       <c r="AV283" s="32"/>
       <c r="AY283" s="33"/>
     </row>
-    <row r="284" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="284" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR284" s="32"/>
       <c r="AV284" s="32"/>
       <c r="AY284" s="33"/>
     </row>
-    <row r="285" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="285" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR285" s="32"/>
       <c r="AV285" s="32"/>
       <c r="AY285" s="33"/>
     </row>
-    <row r="286" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="286" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR286" s="32"/>
       <c r="AV286" s="32"/>
       <c r="AY286" s="33"/>
     </row>
-    <row r="287" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="287" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR287" s="32"/>
       <c r="AV287" s="32"/>
       <c r="AY287" s="33"/>
     </row>
-    <row r="288" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="288" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR288" s="32"/>
       <c r="AV288" s="32"/>
       <c r="AY288" s="33"/>
     </row>
-    <row r="289" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR289" s="32"/>
       <c r="AV289" s="32"/>
       <c r="AY289" s="33"/>
     </row>
-    <row r="290" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="290" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR290" s="32"/>
       <c r="AV290" s="32"/>
       <c r="AY290" s="33"/>
     </row>
-    <row r="291" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="291" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR291" s="32"/>
       <c r="AV291" s="32"/>
       <c r="AY291" s="33"/>
     </row>
-    <row r="292" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="292" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR292" s="32"/>
       <c r="AV292" s="32"/>
       <c r="AY292" s="33"/>
     </row>
-    <row r="293" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="293" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR293" s="32"/>
       <c r="AV293" s="32"/>
       <c r="AY293" s="33"/>
     </row>
-    <row r="294" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR294" s="32"/>
       <c r="AV294" s="32"/>
       <c r="AY294" s="33"/>
     </row>
-    <row r="295" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="295" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR295" s="32"/>
       <c r="AV295" s="32"/>
       <c r="AY295" s="33"/>
     </row>
-    <row r="296" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="296" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR296" s="32"/>
       <c r="AV296" s="32"/>
       <c r="AY296" s="33"/>
     </row>
-    <row r="297" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR297" s="32"/>
       <c r="AV297" s="32"/>
       <c r="AY297" s="33"/>
     </row>
-    <row r="298" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="298" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR298" s="32"/>
       <c r="AV298" s="32"/>
       <c r="AY298" s="33"/>
     </row>
-    <row r="299" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="299" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR299" s="32"/>
       <c r="AV299" s="32"/>
       <c r="AY299" s="33"/>
     </row>
-    <row r="300" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="300" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR300" s="32"/>
       <c r="AV300" s="32"/>
       <c r="AY300" s="33"/>
     </row>
-    <row r="301" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="301" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR301" s="32"/>
       <c r="AV301" s="32"/>
       <c r="AY301" s="33"/>
     </row>
-    <row r="302" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="302" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR302" s="32"/>
       <c r="AV302" s="32"/>
       <c r="AY302" s="33"/>
     </row>
-    <row r="303" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR303" s="32"/>
       <c r="AV303" s="32"/>
       <c r="AY303" s="33"/>
     </row>
-    <row r="304" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="304" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR304" s="32"/>
       <c r="AV304" s="32"/>
       <c r="AY304" s="33"/>
     </row>
-    <row r="305" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="305" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR305" s="32"/>
       <c r="AV305" s="32"/>
       <c r="AY305" s="33"/>
     </row>
-    <row r="306" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="306" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR306" s="32"/>
       <c r="AV306" s="32"/>
       <c r="AY306" s="33"/>
     </row>
-    <row r="307" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="307" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR307" s="32"/>
       <c r="AV307" s="32"/>
       <c r="AY307" s="33"/>
     </row>
-    <row r="308" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="308" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR308" s="32"/>
       <c r="AV308" s="32"/>
       <c r="AY308" s="33"/>
     </row>
-    <row r="309" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="309" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR309" s="32"/>
       <c r="AV309" s="32"/>
       <c r="AY309" s="33"/>
     </row>
-    <row r="310" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="310" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR310" s="32"/>
       <c r="AV310" s="32"/>
       <c r="AY310" s="33"/>
     </row>
-    <row r="311" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="311" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR311" s="32"/>
       <c r="AV311" s="32"/>
       <c r="AY311" s="33"/>
     </row>
-    <row r="312" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="312" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR312" s="32"/>
       <c r="AV312" s="32"/>
       <c r="AY312" s="33"/>
     </row>
-    <row r="313" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="313" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR313" s="32"/>
       <c r="AV313" s="32"/>
       <c r="AY313" s="33"/>
     </row>
-    <row r="314" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="314" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR314" s="32"/>
       <c r="AV314" s="32"/>
       <c r="AY314" s="33"/>
     </row>
-    <row r="315" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="315" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR315" s="32"/>
       <c r="AV315" s="32"/>
       <c r="AY315" s="33"/>
     </row>
-    <row r="316" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="316" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR316" s="32"/>
       <c r="AV316" s="32"/>
       <c r="AY316" s="33"/>
     </row>
-    <row r="317" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="317" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR317" s="32"/>
       <c r="AV317" s="32"/>
       <c r="AY317" s="33"/>
     </row>
-    <row r="318" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="318" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR318" s="32"/>
       <c r="AV318" s="32"/>
       <c r="AY318" s="33"/>
     </row>
-    <row r="319" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="319" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR319" s="32"/>
       <c r="AV319" s="32"/>
       <c r="AY319" s="33"/>
     </row>
-    <row r="320" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="320" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR320" s="32"/>
       <c r="AV320" s="32"/>
       <c r="AY320" s="33"/>
     </row>
-    <row r="321" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="321" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR321" s="32"/>
       <c r="AV321" s="32"/>
       <c r="AY321" s="33"/>
     </row>
-    <row r="322" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="322" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR322" s="32"/>
       <c r="AV322" s="32"/>
       <c r="AY322" s="33"/>
     </row>
-    <row r="323" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="323" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR323" s="32"/>
       <c r="AV323" s="32"/>
       <c r="AY323" s="33"/>
     </row>
-    <row r="324" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="324" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR324" s="32"/>
       <c r="AV324" s="32"/>
       <c r="AY324" s="33"/>
     </row>
-    <row r="325" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="325" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR325" s="32"/>
       <c r="AV325" s="32"/>
       <c r="AY325" s="33"/>
     </row>
-    <row r="326" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="326" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR326" s="32"/>
       <c r="AV326" s="32"/>
       <c r="AY326" s="33"/>
     </row>
-    <row r="327" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="327" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR327" s="32"/>
       <c r="AV327" s="32"/>
       <c r="AY327" s="33"/>
     </row>
-    <row r="328" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="328" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR328" s="32"/>
       <c r="AV328" s="32"/>
       <c r="AY328" s="33"/>
     </row>
-    <row r="329" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="329" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR329" s="32"/>
       <c r="AV329" s="32"/>
       <c r="AY329" s="33"/>
     </row>
-    <row r="330" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="330" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR330" s="32"/>
       <c r="AV330" s="32"/>
       <c r="AY330" s="33"/>
     </row>
-    <row r="331" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="331" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR331" s="32"/>
       <c r="AV331" s="32"/>
       <c r="AY331" s="33"/>
     </row>
-    <row r="332" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="332" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR332" s="32"/>
       <c r="AV332" s="32"/>
       <c r="AY332" s="33"/>
     </row>
-    <row r="333" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="333" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR333" s="32"/>
       <c r="AV333" s="32"/>
       <c r="AY333" s="33"/>
     </row>
-    <row r="334" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="334" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR334" s="32"/>
       <c r="AV334" s="32"/>
       <c r="AY334" s="33"/>
     </row>
-    <row r="335" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="335" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR335" s="32"/>
       <c r="AV335" s="32"/>
       <c r="AY335" s="33"/>
     </row>
-    <row r="336" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="336" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR336" s="32"/>
       <c r="AV336" s="32"/>
       <c r="AY336" s="33"/>
     </row>
-    <row r="337" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="337" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR337" s="32"/>
       <c r="AV337" s="32"/>
       <c r="AY337" s="33"/>
     </row>
-    <row r="338" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="338" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR338" s="32"/>
       <c r="AV338" s="32"/>
       <c r="AY338" s="33"/>
     </row>
-    <row r="339" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="339" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR339" s="32"/>
       <c r="AV339" s="32"/>
       <c r="AY339" s="33"/>
     </row>
-    <row r="340" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="340" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR340" s="32"/>
       <c r="AV340" s="32"/>
       <c r="AY340" s="33"/>
     </row>
-    <row r="341" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="341" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR341" s="32"/>
       <c r="AV341" s="32"/>
       <c r="AY341" s="33"/>
     </row>
-    <row r="342" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="342" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR342" s="32"/>
       <c r="AV342" s="32"/>
       <c r="AY342" s="33"/>
     </row>
-    <row r="343" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="343" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR343" s="32"/>
       <c r="AV343" s="32"/>
       <c r="AY343" s="33"/>
     </row>
-    <row r="344" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="344" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR344" s="32"/>
       <c r="AV344" s="32"/>
       <c r="AY344" s="33"/>
     </row>
-    <row r="345" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="345" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR345" s="32"/>
       <c r="AV345" s="32"/>
       <c r="AY345" s="33"/>
     </row>
-    <row r="346" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="346" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR346" s="32"/>
       <c r="AV346" s="32"/>
       <c r="AY346" s="33"/>
     </row>
-    <row r="347" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="347" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR347" s="32"/>
       <c r="AV347" s="32"/>
       <c r="AY347" s="33"/>
     </row>
-    <row r="348" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="348" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR348" s="32"/>
       <c r="AV348" s="32"/>
       <c r="AY348" s="33"/>
     </row>
-    <row r="349" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="349" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR349" s="32"/>
       <c r="AV349" s="32"/>
       <c r="AY349" s="33"/>
     </row>
-    <row r="350" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="350" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR350" s="32"/>
       <c r="AV350" s="32"/>
       <c r="AY350" s="33"/>
     </row>
-    <row r="351" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="351" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR351" s="32"/>
       <c r="AV351" s="32"/>
       <c r="AY351" s="33"/>
     </row>
-    <row r="352" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="352" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR352" s="32"/>
       <c r="AV352" s="32"/>
       <c r="AY352" s="33"/>
     </row>
-    <row r="353" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="353" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR353" s="32"/>
       <c r="AV353" s="32"/>
       <c r="AY353" s="33"/>
     </row>
-    <row r="354" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="354" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR354" s="32"/>
       <c r="AV354" s="32"/>
       <c r="AY354" s="33"/>
     </row>
-    <row r="355" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="355" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR355" s="32"/>
       <c r="AV355" s="32"/>
       <c r="AY355" s="33"/>
     </row>
-    <row r="356" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="356" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR356" s="32"/>
       <c r="AV356" s="32"/>
       <c r="AY356" s="33"/>
     </row>
-    <row r="357" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="357" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR357" s="32"/>
       <c r="AV357" s="32"/>
       <c r="AY357" s="33"/>
     </row>
-    <row r="358" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="358" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR358" s="32"/>
       <c r="AV358" s="32"/>
       <c r="AY358" s="33"/>
     </row>
-    <row r="359" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="359" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR359" s="32"/>
       <c r="AV359" s="32"/>
       <c r="AY359" s="33"/>
     </row>
-    <row r="360" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="360" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR360" s="32"/>
       <c r="AV360" s="32"/>
       <c r="AY360" s="33"/>
     </row>
-    <row r="361" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="361" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR361" s="32"/>
       <c r="AV361" s="32"/>
       <c r="AY361" s="33"/>
     </row>
-    <row r="362" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="362" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR362" s="32"/>
       <c r="AV362" s="32"/>
       <c r="AY362" s="33"/>
     </row>
-    <row r="363" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="363" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR363" s="32"/>
       <c r="AV363" s="32"/>
       <c r="AY363" s="33"/>
     </row>
-    <row r="364" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="364" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR364" s="32"/>
       <c r="AV364" s="32"/>
       <c r="AY364" s="33"/>
     </row>
-    <row r="365" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="365" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR365" s="32"/>
       <c r="AV365" s="32"/>
       <c r="AY365" s="33"/>
     </row>
-    <row r="366" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="366" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR366" s="32"/>
       <c r="AV366" s="32"/>
       <c r="AY366" s="33"/>
     </row>
-    <row r="367" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="367" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR367" s="32"/>
       <c r="AV367" s="32"/>
       <c r="AY367" s="33"/>
     </row>
-    <row r="368" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="368" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR368" s="32"/>
       <c r="AV368" s="32"/>
       <c r="AY368" s="33"/>
     </row>
-    <row r="369" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="369" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR369" s="32"/>
       <c r="AV369" s="32"/>
       <c r="AY369" s="33"/>
     </row>
-    <row r="370" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="370" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR370" s="32"/>
       <c r="AV370" s="32"/>
       <c r="AY370" s="33"/>
     </row>
-    <row r="371" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="371" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR371" s="32"/>
       <c r="AV371" s="32"/>
       <c r="AY371" s="33"/>
     </row>
-    <row r="372" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="372" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR372" s="32"/>
       <c r="AV372" s="32"/>
       <c r="AY372" s="33"/>
     </row>
-    <row r="373" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="373" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR373" s="32"/>
       <c r="AV373" s="32"/>
       <c r="AY373" s="33"/>
     </row>
-    <row r="374" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="374" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR374" s="32"/>
       <c r="AV374" s="32"/>
       <c r="AY374" s="33"/>
     </row>
-    <row r="375" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="375" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR375" s="32"/>
       <c r="AV375" s="32"/>
       <c r="AY375" s="33"/>
     </row>
-    <row r="376" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="376" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR376" s="32"/>
       <c r="AV376" s="32"/>
       <c r="AY376" s="33"/>
     </row>
-    <row r="377" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="377" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR377" s="32"/>
       <c r="AV377" s="32"/>
       <c r="AY377" s="33"/>
     </row>
-    <row r="378" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="378" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR378" s="32"/>
       <c r="AV378" s="32"/>
       <c r="AY378" s="33"/>
     </row>
-    <row r="379" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="379" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR379" s="32"/>
       <c r="AV379" s="32"/>
       <c r="AY379" s="33"/>
     </row>
-    <row r="380" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="380" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR380" s="32"/>
       <c r="AV380" s="32"/>
       <c r="AY380" s="33"/>
     </row>
-    <row r="381" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="381" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR381" s="32"/>
       <c r="AV381" s="32"/>
       <c r="AY381" s="33"/>
     </row>
-    <row r="382" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="382" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR382" s="32"/>
       <c r="AV382" s="32"/>
       <c r="AY382" s="33"/>
     </row>
-    <row r="383" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="383" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR383" s="32"/>
       <c r="AV383" s="32"/>
       <c r="AY383" s="33"/>
     </row>
-    <row r="384" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="384" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR384" s="32"/>
       <c r="AV384" s="32"/>
       <c r="AY384" s="33"/>
     </row>
-    <row r="385" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="385" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR385" s="32"/>
       <c r="AV385" s="32"/>
       <c r="AY385" s="33"/>
     </row>
-    <row r="386" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="386" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR386" s="32"/>
       <c r="AV386" s="32"/>
       <c r="AY386" s="33"/>
     </row>
-    <row r="387" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="387" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR387" s="32"/>
       <c r="AV387" s="32"/>
       <c r="AY387" s="33"/>
     </row>
-    <row r="388" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="388" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR388" s="32"/>
       <c r="AV388" s="32"/>
       <c r="AY388" s="33"/>
     </row>
-    <row r="389" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="389" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR389" s="32"/>
       <c r="AV389" s="32"/>
       <c r="AY389" s="33"/>
     </row>
-    <row r="390" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="390" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR390" s="32"/>
       <c r="AV390" s="32"/>
       <c r="AY390" s="33"/>
     </row>
-    <row r="391" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="391" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR391" s="32"/>
       <c r="AV391" s="32"/>
       <c r="AY391" s="33"/>
     </row>
-    <row r="392" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="392" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR392" s="32"/>
       <c r="AV392" s="32"/>
       <c r="AY392" s="33"/>
     </row>
-    <row r="393" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="393" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR393" s="32"/>
       <c r="AV393" s="32"/>
       <c r="AY393" s="33"/>
     </row>
-    <row r="394" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="394" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR394" s="32"/>
       <c r="AV394" s="32"/>
       <c r="AY394" s="33"/>
     </row>
-    <row r="395" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="395" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR395" s="32"/>
       <c r="AV395" s="32"/>
       <c r="AY395" s="33"/>
     </row>
-    <row r="396" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="396" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR396" s="32"/>
       <c r="AV396" s="32"/>
       <c r="AY396" s="33"/>
     </row>
-    <row r="397" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="397" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR397" s="32"/>
       <c r="AV397" s="32"/>
       <c r="AY397" s="33"/>
     </row>
-    <row r="398" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="398" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR398" s="32"/>
       <c r="AV398" s="32"/>
       <c r="AY398" s="33"/>
     </row>
-    <row r="399" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="399" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR399" s="32"/>
       <c r="AV399" s="32"/>
       <c r="AY399" s="33"/>
     </row>
-    <row r="400" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="400" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR400" s="32"/>
       <c r="AV400" s="32"/>
       <c r="AY400" s="33"/>
     </row>
-    <row r="401" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="401" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR401" s="32"/>
       <c r="AV401" s="32"/>
       <c r="AY401" s="33"/>
     </row>
-    <row r="402" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="402" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR402" s="32"/>
       <c r="AV402" s="32"/>
       <c r="AY402" s="33"/>
     </row>
-    <row r="403" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="403" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR403" s="32"/>
       <c r="AV403" s="32"/>
       <c r="AY403" s="33"/>
     </row>
-    <row r="404" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="404" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR404" s="32"/>
       <c r="AV404" s="32"/>
       <c r="AY404" s="33"/>
     </row>
-    <row r="405" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="405" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR405" s="32"/>
       <c r="AV405" s="32"/>
       <c r="AY405" s="33"/>
     </row>
-    <row r="406" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="406" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR406" s="32"/>
       <c r="AV406" s="32"/>
       <c r="AY406" s="33"/>
     </row>
-    <row r="407" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="407" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR407" s="32"/>
       <c r="AV407" s="32"/>
       <c r="AY407" s="33"/>
     </row>
-    <row r="408" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="408" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR408" s="32"/>
       <c r="AV408" s="32"/>
       <c r="AY408" s="33"/>
     </row>
-    <row r="409" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="409" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR409" s="32"/>
       <c r="AV409" s="32"/>
       <c r="AY409" s="33"/>
     </row>
-    <row r="410" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="410" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR410" s="32"/>
       <c r="AV410" s="32"/>
       <c r="AY410" s="33"/>
     </row>
-    <row r="411" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="411" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR411" s="32"/>
       <c r="AV411" s="32"/>
       <c r="AY411" s="33"/>
     </row>
-    <row r="412" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="412" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR412" s="32"/>
       <c r="AV412" s="32"/>
       <c r="AY412" s="33"/>
     </row>
-    <row r="413" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="413" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR413" s="32"/>
       <c r="AV413" s="32"/>
       <c r="AY413" s="33"/>
     </row>
-    <row r="414" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="414" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR414" s="32"/>
       <c r="AV414" s="32"/>
       <c r="AY414" s="33"/>
     </row>
-    <row r="415" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="415" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR415" s="32"/>
       <c r="AV415" s="32"/>
       <c r="AY415" s="33"/>
     </row>
-    <row r="416" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="416" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR416" s="32"/>
       <c r="AV416" s="32"/>
       <c r="AY416" s="33"/>
     </row>
-    <row r="417" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="417" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR417" s="32"/>
       <c r="AV417" s="32"/>
       <c r="AY417" s="33"/>
     </row>
-    <row r="418" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="418" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR418" s="32"/>
       <c r="AV418" s="32"/>
       <c r="AY418" s="33"/>
     </row>
-    <row r="419" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="419" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR419" s="32"/>
       <c r="AV419" s="32"/>
       <c r="AY419" s="33"/>
     </row>
-    <row r="420" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="420" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR420" s="32"/>
       <c r="AV420" s="32"/>
       <c r="AY420" s="33"/>
     </row>
-    <row r="421" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="421" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR421" s="32"/>
       <c r="AV421" s="32"/>
       <c r="AY421" s="33"/>
     </row>
-    <row r="422" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="422" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR422" s="32"/>
       <c r="AV422" s="32"/>
       <c r="AY422" s="33"/>
     </row>
-    <row r="423" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="423" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR423" s="32"/>
       <c r="AV423" s="32"/>
       <c r="AY423" s="33"/>
     </row>
-    <row r="424" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="424" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR424" s="32"/>
       <c r="AV424" s="32"/>
       <c r="AY424" s="33"/>
     </row>
-    <row r="425" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="425" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR425" s="32"/>
       <c r="AV425" s="32"/>
       <c r="AY425" s="33"/>
     </row>
-    <row r="426" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="426" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR426" s="32"/>
       <c r="AV426" s="32"/>
       <c r="AY426" s="33"/>
     </row>
-    <row r="427" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="427" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR427" s="32"/>
       <c r="AV427" s="32"/>
       <c r="AY427" s="33"/>
     </row>
-    <row r="428" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="428" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR428" s="32"/>
       <c r="AV428" s="32"/>
       <c r="AY428" s="33"/>
     </row>
-    <row r="429" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="429" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR429" s="32"/>
       <c r="AV429" s="32"/>
       <c r="AY429" s="33"/>
     </row>
-    <row r="430" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="430" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR430" s="32"/>
       <c r="AV430" s="32"/>
       <c r="AY430" s="33"/>
     </row>
-    <row r="431" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="431" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR431" s="32"/>
       <c r="AV431" s="32"/>
       <c r="AY431" s="33"/>
     </row>
-    <row r="432" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="432" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR432" s="32"/>
       <c r="AV432" s="32"/>
       <c r="AY432" s="33"/>
     </row>
-    <row r="433" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="433" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR433" s="32"/>
       <c r="AV433" s="32"/>
       <c r="AY433" s="33"/>
     </row>
-    <row r="434" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="434" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR434" s="32"/>
       <c r="AV434" s="32"/>
       <c r="AY434" s="33"/>
     </row>
-    <row r="435" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="435" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR435" s="32"/>
       <c r="AV435" s="32"/>
       <c r="AY435" s="33"/>
     </row>
-    <row r="436" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="436" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR436" s="32"/>
       <c r="AV436" s="32"/>
       <c r="AY436" s="33"/>
     </row>
-    <row r="437" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="437" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR437" s="32"/>
       <c r="AV437" s="32"/>
       <c r="AY437" s="33"/>
     </row>
-    <row r="438" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="438" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR438" s="32"/>
       <c r="AV438" s="32"/>
       <c r="AY438" s="33"/>
     </row>
-    <row r="439" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="439" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR439" s="32"/>
       <c r="AV439" s="32"/>
       <c r="AY439" s="33"/>
     </row>
-    <row r="440" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="440" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR440" s="32"/>
       <c r="AV440" s="32"/>
       <c r="AY440" s="33"/>
     </row>
-    <row r="441" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="441" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR441" s="32"/>
       <c r="AV441" s="32"/>
       <c r="AY441" s="33"/>
     </row>
-    <row r="442" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="442" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR442" s="32"/>
       <c r="AV442" s="32"/>
       <c r="AY442" s="33"/>
     </row>
-    <row r="443" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="443" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR443" s="32"/>
       <c r="AV443" s="32"/>
       <c r="AY443" s="33"/>
     </row>
-    <row r="444" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="444" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR444" s="32"/>
       <c r="AV444" s="32"/>
       <c r="AY444" s="33"/>
     </row>
-    <row r="445" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="445" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR445" s="32"/>
       <c r="AV445" s="32"/>
       <c r="AY445" s="33"/>
     </row>
-    <row r="446" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="446" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR446" s="32"/>
       <c r="AV446" s="32"/>
       <c r="AY446" s="33"/>
     </row>
-    <row r="447" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="447" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR447" s="32"/>
       <c r="AV447" s="32"/>
       <c r="AY447" s="33"/>
     </row>
-    <row r="448" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="448" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR448" s="32"/>
       <c r="AV448" s="32"/>
       <c r="AY448" s="33"/>
     </row>
-    <row r="449" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="449" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR449" s="32"/>
       <c r="AV449" s="32"/>
       <c r="AY449" s="33"/>
     </row>
-    <row r="450" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="450" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR450" s="32"/>
       <c r="AV450" s="32"/>
       <c r="AY450" s="33"/>
     </row>
-    <row r="451" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="451" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR451" s="32"/>
       <c r="AV451" s="32"/>
       <c r="AY451" s="33"/>
     </row>
-    <row r="452" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="452" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR452" s="32"/>
       <c r="AV452" s="32"/>
       <c r="AY452" s="33"/>
     </row>
-    <row r="453" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="453" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR453" s="32"/>
       <c r="AV453" s="32"/>
       <c r="AY453" s="33"/>
     </row>
-    <row r="454" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="454" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR454" s="32"/>
       <c r="AV454" s="32"/>
       <c r="AY454" s="33"/>
     </row>
-    <row r="455" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="455" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR455" s="32"/>
       <c r="AV455" s="32"/>
       <c r="AY455" s="33"/>
     </row>
-    <row r="456" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="456" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR456" s="32"/>
       <c r="AV456" s="32"/>
       <c r="AY456" s="33"/>
     </row>
-    <row r="457" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="457" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR457" s="32"/>
       <c r="AV457" s="32"/>
       <c r="AY457" s="33"/>
     </row>
-    <row r="458" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="458" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR458" s="32"/>
       <c r="AV458" s="32"/>
       <c r="AY458" s="33"/>
     </row>
-    <row r="459" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="459" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR459" s="32"/>
       <c r="AV459" s="32"/>
       <c r="AY459" s="33"/>
     </row>
-    <row r="460" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="460" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR460" s="32"/>
       <c r="AV460" s="32"/>
       <c r="AY460" s="33"/>
     </row>
-    <row r="461" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="461" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR461" s="32"/>
       <c r="AV461" s="32"/>
       <c r="AY461" s="33"/>
     </row>
-    <row r="462" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="462" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR462" s="32"/>
       <c r="AV462" s="32"/>
       <c r="AY462" s="33"/>
     </row>
-    <row r="463" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="463" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR463" s="32"/>
       <c r="AV463" s="32"/>
       <c r="AY463" s="33"/>
     </row>
-    <row r="464" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="464" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR464" s="32"/>
       <c r="AV464" s="32"/>
       <c r="AY464" s="33"/>
     </row>
-    <row r="465" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="465" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR465" s="32"/>
       <c r="AV465" s="32"/>
       <c r="AY465" s="33"/>
     </row>
-    <row r="466" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="466" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR466" s="32"/>
       <c r="AV466" s="32"/>
       <c r="AY466" s="33"/>
     </row>
-    <row r="467" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="467" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR467" s="32"/>
       <c r="AV467" s="32"/>
       <c r="AY467" s="33"/>
     </row>
-    <row r="468" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="468" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR468" s="32"/>
       <c r="AV468" s="32"/>
       <c r="AY468" s="33"/>
     </row>
-    <row r="469" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="469" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR469" s="32"/>
       <c r="AV469" s="32"/>
       <c r="AY469" s="33"/>
     </row>
-    <row r="470" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="470" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR470" s="32"/>
       <c r="AV470" s="32"/>
       <c r="AY470" s="33"/>
     </row>
-    <row r="471" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="471" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR471" s="32"/>
       <c r="AV471" s="32"/>
       <c r="AY471" s="33"/>
     </row>
-    <row r="472" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="472" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR472" s="32"/>
       <c r="AV472" s="32"/>
       <c r="AY472" s="33"/>
     </row>
-    <row r="473" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="473" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR473" s="32"/>
       <c r="AV473" s="32"/>
       <c r="AY473" s="33"/>
     </row>
-    <row r="474" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="474" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR474" s="32"/>
       <c r="AV474" s="32"/>
       <c r="AY474" s="33"/>
     </row>
-    <row r="475" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="475" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR475" s="32"/>
       <c r="AV475" s="32"/>
       <c r="AY475" s="33"/>
     </row>
-    <row r="476" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="476" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR476" s="32"/>
       <c r="AV476" s="32"/>
       <c r="AY476" s="33"/>
     </row>
-    <row r="477" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="477" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR477" s="32"/>
       <c r="AV477" s="32"/>
       <c r="AY477" s="33"/>
     </row>
-    <row r="478" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="478" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR478" s="32"/>
       <c r="AV478" s="32"/>
       <c r="AY478" s="33"/>
     </row>
-    <row r="479" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="479" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR479" s="32"/>
       <c r="AV479" s="32"/>
       <c r="AY479" s="33"/>
     </row>
-    <row r="480" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="480" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR480" s="32"/>
       <c r="AV480" s="32"/>
       <c r="AY480" s="33"/>
     </row>
-    <row r="481" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="481" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR481" s="32"/>
       <c r="AV481" s="32"/>
       <c r="AY481" s="33"/>
     </row>
-    <row r="482" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="482" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR482" s="32"/>
       <c r="AV482" s="32"/>
       <c r="AY482" s="33"/>
     </row>
-    <row r="483" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="483" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR483" s="32"/>
       <c r="AV483" s="32"/>
       <c r="AY483" s="33"/>
     </row>
-    <row r="484" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="484" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR484" s="32"/>
       <c r="AV484" s="32"/>
       <c r="AY484" s="33"/>
     </row>
-    <row r="485" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="485" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR485" s="32"/>
       <c r="AV485" s="32"/>
       <c r="AY485" s="33"/>
     </row>
-    <row r="486" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="486" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR486" s="32"/>
       <c r="AV486" s="32"/>
       <c r="AY486" s="33"/>
     </row>
-    <row r="487" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="487" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR487" s="32"/>
       <c r="AV487" s="32"/>
       <c r="AY487" s="33"/>
     </row>
-    <row r="488" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="488" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR488" s="32"/>
       <c r="AV488" s="32"/>
       <c r="AY488" s="33"/>
     </row>
-    <row r="489" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="489" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR489" s="32"/>
       <c r="AV489" s="32"/>
       <c r="AY489" s="33"/>
     </row>
-    <row r="490" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="490" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR490" s="32"/>
       <c r="AV490" s="32"/>
       <c r="AY490" s="33"/>
     </row>
-    <row r="491" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="491" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR491" s="32"/>
       <c r="AV491" s="32"/>
       <c r="AY491" s="33"/>
     </row>
-    <row r="492" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="492" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR492" s="32"/>
       <c r="AV492" s="32"/>
       <c r="AY492" s="33"/>
     </row>
-    <row r="493" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="493" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR493" s="32"/>
       <c r="AV493" s="32"/>
       <c r="AY493" s="33"/>
     </row>
-    <row r="494" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="494" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR494" s="32"/>
       <c r="AV494" s="32"/>
       <c r="AY494" s="33"/>
     </row>
-    <row r="495" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="495" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR495" s="32"/>
       <c r="AV495" s="32"/>
       <c r="AY495" s="33"/>
     </row>
-    <row r="496" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="496" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR496" s="32"/>
       <c r="AV496" s="32"/>
       <c r="AY496" s="33"/>
     </row>
-    <row r="497" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="497" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR497" s="32"/>
       <c r="AV497" s="32"/>
       <c r="AY497" s="33"/>
     </row>
-    <row r="498" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="498" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR498" s="32"/>
       <c r="AV498" s="32"/>
       <c r="AY498" s="33"/>
     </row>
-    <row r="499" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="499" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR499" s="32"/>
       <c r="AV499" s="32"/>
       <c r="AY499" s="33"/>
     </row>
-    <row r="500" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="500" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR500" s="32"/>
       <c r="AV500" s="32"/>
       <c r="AY500" s="33"/>
     </row>
-    <row r="501" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="501" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR501" s="32"/>
       <c r="AV501" s="32"/>
       <c r="AY501" s="33"/>
     </row>
-    <row r="502" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="502" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR502" s="32"/>
       <c r="AV502" s="32"/>
       <c r="AY502" s="33"/>
     </row>
-    <row r="503" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="503" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR503" s="32"/>
       <c r="AV503" s="32"/>
       <c r="AY503" s="33"/>
     </row>
-    <row r="504" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="504" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR504" s="32"/>
       <c r="AV504" s="32"/>
       <c r="AY504" s="33"/>
     </row>
-    <row r="505" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="505" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR505" s="32"/>
       <c r="AV505" s="32"/>
       <c r="AY505" s="33"/>
     </row>
-    <row r="506" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="506" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR506" s="32"/>
       <c r="AV506" s="32"/>
       <c r="AY506" s="33"/>
     </row>
-    <row r="507" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="507" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR507" s="32"/>
       <c r="AV507" s="32"/>
       <c r="AY507" s="33"/>
     </row>
-    <row r="508" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="508" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR508" s="32"/>
       <c r="AV508" s="32"/>
       <c r="AY508" s="33"/>
     </row>
-    <row r="509" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="509" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR509" s="32"/>
       <c r="AV509" s="32"/>
       <c r="AY509" s="33"/>
     </row>
-    <row r="510" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="510" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR510" s="32"/>
       <c r="AV510" s="32"/>
       <c r="AY510" s="33"/>
     </row>
-    <row r="511" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="511" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR511" s="32"/>
       <c r="AV511" s="32"/>
       <c r="AY511" s="33"/>
     </row>
-    <row r="512" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="512" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR512" s="32"/>
       <c r="AV512" s="32"/>
       <c r="AY512" s="33"/>
     </row>
-    <row r="513" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="513" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR513" s="32"/>
       <c r="AV513" s="32"/>
       <c r="AY513" s="33"/>
     </row>
-    <row r="514" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="514" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR514" s="32"/>
       <c r="AV514" s="32"/>
       <c r="AY514" s="33"/>
     </row>
-    <row r="515" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="515" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR515" s="32"/>
       <c r="AV515" s="32"/>
       <c r="AY515" s="33"/>
     </row>
-    <row r="516" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="516" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR516" s="32"/>
       <c r="AV516" s="32"/>
       <c r="AY516" s="33"/>
     </row>
-    <row r="517" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="517" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR517" s="32"/>
       <c r="AV517" s="32"/>
       <c r="AY517" s="33"/>
     </row>
-    <row r="518" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="518" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR518" s="32"/>
       <c r="AV518" s="32"/>
       <c r="AY518" s="33"/>
     </row>
-    <row r="519" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="519" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR519" s="32"/>
       <c r="AV519" s="32"/>
       <c r="AY519" s="33"/>
     </row>
-    <row r="520" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="520" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR520" s="32"/>
       <c r="AV520" s="32"/>
       <c r="AY520" s="33"/>
     </row>
-    <row r="521" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="521" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR521" s="32"/>
       <c r="AV521" s="32"/>
       <c r="AY521" s="33"/>
     </row>
-    <row r="522" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="522" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR522" s="32"/>
       <c r="AV522" s="32"/>
       <c r="AY522" s="33"/>
     </row>
-    <row r="523" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="523" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR523" s="32"/>
       <c r="AV523" s="32"/>
       <c r="AY523" s="33"/>
     </row>
-    <row r="524" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="524" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR524" s="32"/>
       <c r="AV524" s="32"/>
       <c r="AY524" s="33"/>
     </row>
-    <row r="525" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="525" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR525" s="32"/>
       <c r="AV525" s="32"/>
       <c r="AY525" s="33"/>
     </row>
-    <row r="526" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="526" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR526" s="32"/>
       <c r="AV526" s="32"/>
       <c r="AY526" s="33"/>
     </row>
-    <row r="527" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="527" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR527" s="32"/>
       <c r="AV527" s="32"/>
       <c r="AY527" s="33"/>
     </row>
-    <row r="528" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="528" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR528" s="32"/>
       <c r="AV528" s="32"/>
       <c r="AY528" s="33"/>
     </row>
-    <row r="529" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="529" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR529" s="32"/>
       <c r="AV529" s="32"/>
       <c r="AY529" s="33"/>
     </row>
-    <row r="530" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="530" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR530" s="32"/>
       <c r="AV530" s="32"/>
       <c r="AY530" s="33"/>
     </row>
-    <row r="531" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="531" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR531" s="32"/>
       <c r="AV531" s="32"/>
       <c r="AY531" s="33"/>
     </row>
-    <row r="532" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="532" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR532" s="32"/>
       <c r="AV532" s="32"/>
       <c r="AY532" s="33"/>
     </row>
-    <row r="533" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="533" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR533" s="32"/>
       <c r="AV533" s="32"/>
       <c r="AY533" s="33"/>
     </row>
-    <row r="534" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="534" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR534" s="32"/>
       <c r="AV534" s="32"/>
       <c r="AY534" s="33"/>
     </row>
-    <row r="535" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="535" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR535" s="32"/>
       <c r="AV535" s="32"/>
       <c r="AY535" s="33"/>
     </row>
-    <row r="536" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="536" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR536" s="32"/>
       <c r="AV536" s="32"/>
       <c r="AY536" s="33"/>
     </row>
-    <row r="537" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="537" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR537" s="32"/>
       <c r="AV537" s="32"/>
       <c r="AY537" s="33"/>
     </row>
-    <row r="538" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="538" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR538" s="32"/>
       <c r="AV538" s="32"/>
       <c r="AY538" s="33"/>
     </row>
-    <row r="539" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="539" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR539" s="32"/>
       <c r="AV539" s="32"/>
       <c r="AY539" s="33"/>
     </row>
-    <row r="540" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="540" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR540" s="32"/>
       <c r="AV540" s="32"/>
       <c r="AY540" s="33"/>
     </row>
-    <row r="541" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="541" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR541" s="32"/>
       <c r="AV541" s="32"/>
       <c r="AY541" s="33"/>
     </row>
-    <row r="542" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="542" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR542" s="32"/>
       <c r="AV542" s="32"/>
       <c r="AY542" s="33"/>
     </row>
-    <row r="543" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="543" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR543" s="32"/>
       <c r="AV543" s="32"/>
       <c r="AY543" s="33"/>
     </row>
-    <row r="544" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="544" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR544" s="32"/>
       <c r="AV544" s="32"/>
       <c r="AY544" s="33"/>
     </row>
-    <row r="545" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="545" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR545" s="32"/>
       <c r="AV545" s="32"/>
       <c r="AY545" s="33"/>
     </row>
-    <row r="546" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="546" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR546" s="32"/>
       <c r="AV546" s="32"/>
       <c r="AY546" s="33"/>
     </row>
-    <row r="547" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="547" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR547" s="32"/>
       <c r="AV547" s="32"/>
       <c r="AY547" s="33"/>
     </row>
-    <row r="548" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="548" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR548" s="32"/>
       <c r="AV548" s="32"/>
       <c r="AY548" s="33"/>
     </row>
-    <row r="549" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="549" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR549" s="32"/>
       <c r="AV549" s="32"/>
       <c r="AY549" s="33"/>
     </row>
-    <row r="550" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="550" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR550" s="32"/>
       <c r="AV550" s="32"/>
       <c r="AY550" s="33"/>
     </row>
-    <row r="551" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="551" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR551" s="32"/>
       <c r="AV551" s="32"/>
       <c r="AY551" s="33"/>
     </row>
-    <row r="552" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="552" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR552" s="32"/>
       <c r="AV552" s="32"/>
       <c r="AY552" s="33"/>
     </row>
-    <row r="553" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="553" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR553" s="32"/>
       <c r="AV553" s="32"/>
       <c r="AY553" s="33"/>
     </row>
-    <row r="554" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="554" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR554" s="32"/>
       <c r="AV554" s="32"/>
       <c r="AY554" s="33"/>
     </row>
-    <row r="555" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="555" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR555" s="32"/>
       <c r="AV555" s="32"/>
       <c r="AY555" s="33"/>
     </row>
-    <row r="556" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="556" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR556" s="32"/>
       <c r="AV556" s="32"/>
       <c r="AY556" s="33"/>
     </row>
-    <row r="557" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="557" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR557" s="32"/>
       <c r="AV557" s="32"/>
       <c r="AY557" s="33"/>
     </row>
-    <row r="558" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="558" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR558" s="32"/>
       <c r="AV558" s="32"/>
       <c r="AY558" s="33"/>
     </row>
-    <row r="559" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="559" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR559" s="32"/>
       <c r="AV559" s="32"/>
       <c r="AY559" s="33"/>
     </row>
-    <row r="560" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="560" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR560" s="32"/>
       <c r="AV560" s="32"/>
       <c r="AY560" s="33"/>
     </row>
-    <row r="561" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="561" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR561" s="32"/>
       <c r="AV561" s="32"/>
       <c r="AY561" s="33"/>
     </row>
-    <row r="562" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="562" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR562" s="32"/>
       <c r="AV562" s="32"/>
       <c r="AY562" s="33"/>
     </row>
-    <row r="563" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="563" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR563" s="32"/>
       <c r="AV563" s="32"/>
       <c r="AY563" s="33"/>
     </row>
-    <row r="564" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="564" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR564" s="32"/>
       <c r="AV564" s="32"/>
       <c r="AY564" s="33"/>
     </row>
-    <row r="565" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="565" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR565" s="32"/>
       <c r="AV565" s="32"/>
       <c r="AY565" s="33"/>
     </row>
-    <row r="566" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="566" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR566" s="32"/>
       <c r="AV566" s="32"/>
       <c r="AY566" s="33"/>
     </row>
-    <row r="567" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="567" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR567" s="32"/>
       <c r="AV567" s="32"/>
       <c r="AY567" s="33"/>
     </row>
-    <row r="568" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="568" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR568" s="32"/>
       <c r="AV568" s="32"/>
       <c r="AY568" s="33"/>
     </row>
-    <row r="569" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="569" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR569" s="32"/>
       <c r="AV569" s="32"/>
       <c r="AY569" s="33"/>
     </row>
-    <row r="570" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="570" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR570" s="32"/>
       <c r="AV570" s="32"/>
       <c r="AY570" s="33"/>
     </row>
-    <row r="571" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="571" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR571" s="32"/>
       <c r="AV571" s="32"/>
       <c r="AY571" s="33"/>
     </row>
-    <row r="572" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="572" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR572" s="32"/>
       <c r="AV572" s="32"/>
       <c r="AY572" s="33"/>
     </row>
-    <row r="573" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="573" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR573" s="32"/>
       <c r="AV573" s="32"/>
       <c r="AY573" s="33"/>
     </row>
-    <row r="574" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="574" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR574" s="32"/>
       <c r="AV574" s="32"/>
       <c r="AY574" s="33"/>
     </row>
-    <row r="575" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="575" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR575" s="32"/>
       <c r="AV575" s="32"/>
       <c r="AY575" s="33"/>
     </row>
-    <row r="576" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="576" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR576" s="32"/>
       <c r="AV576" s="32"/>
       <c r="AY576" s="33"/>
     </row>
-    <row r="577" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="577" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR577" s="32"/>
       <c r="AV577" s="32"/>
       <c r="AY577" s="33"/>
     </row>
-    <row r="578" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="578" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR578" s="32"/>
       <c r="AV578" s="32"/>
       <c r="AY578" s="33"/>
     </row>
-    <row r="579" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="579" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR579" s="32"/>
       <c r="AV579" s="32"/>
       <c r="AY579" s="33"/>
     </row>
-    <row r="580" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="580" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR580" s="32"/>
       <c r="AV580" s="32"/>
       <c r="AY580" s="33"/>
     </row>
-    <row r="581" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="581" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR581" s="32"/>
       <c r="AV581" s="32"/>
       <c r="AY581" s="33"/>
     </row>
-    <row r="582" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="582" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR582" s="32"/>
       <c r="AV582" s="32"/>
       <c r="AY582" s="33"/>
     </row>
-    <row r="583" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="583" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR583" s="32"/>
       <c r="AV583" s="32"/>
       <c r="AY583" s="33"/>
     </row>
-    <row r="584" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="584" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR584" s="32"/>
       <c r="AV584" s="32"/>
       <c r="AY584" s="33"/>
     </row>
-    <row r="585" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="585" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR585" s="32"/>
       <c r="AV585" s="32"/>
       <c r="AY585" s="33"/>
     </row>
-    <row r="586" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="586" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR586" s="32"/>
       <c r="AV586" s="32"/>
       <c r="AY586" s="33"/>
     </row>
-    <row r="587" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="587" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR587" s="32"/>
       <c r="AV587" s="32"/>
       <c r="AY587" s="33"/>
     </row>
-    <row r="588" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="588" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR588" s="32"/>
       <c r="AV588" s="32"/>
       <c r="AY588" s="33"/>
     </row>
-    <row r="589" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="589" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR589" s="32"/>
       <c r="AV589" s="32"/>
       <c r="AY589" s="33"/>
     </row>
-    <row r="590" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="590" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR590" s="32"/>
       <c r="AV590" s="32"/>
       <c r="AY590" s="33"/>
     </row>
-    <row r="591" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="591" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR591" s="32"/>
       <c r="AV591" s="32"/>
       <c r="AY591" s="33"/>
     </row>
-    <row r="592" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="592" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR592" s="32"/>
       <c r="AV592" s="32"/>
       <c r="AY592" s="33"/>
     </row>
-    <row r="593" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="593" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR593" s="32"/>
       <c r="AV593" s="32"/>
       <c r="AY593" s="33"/>
     </row>
-    <row r="594" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="594" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR594" s="32"/>
       <c r="AV594" s="32"/>
       <c r="AY594" s="33"/>
     </row>
-    <row r="595" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="595" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR595" s="32"/>
       <c r="AV595" s="32"/>
       <c r="AY595" s="33"/>
     </row>
-    <row r="596" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="596" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR596" s="32"/>
       <c r="AV596" s="32"/>
       <c r="AY596" s="33"/>
     </row>
-    <row r="597" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="597" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR597" s="32"/>
       <c r="AV597" s="32"/>
       <c r="AY597" s="33"/>
     </row>
-    <row r="598" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="598" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR598" s="32"/>
       <c r="AV598" s="32"/>
       <c r="AY598" s="33"/>
     </row>
-    <row r="599" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="599" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR599" s="32"/>
       <c r="AV599" s="32"/>
       <c r="AY599" s="33"/>
     </row>
-    <row r="600" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="600" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR600" s="32"/>
       <c r="AV600" s="32"/>
       <c r="AY600" s="33"/>
     </row>
-    <row r="601" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="601" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR601" s="32"/>
       <c r="AV601" s="32"/>
       <c r="AY601" s="33"/>
     </row>
-    <row r="602" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="602" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR602" s="32"/>
       <c r="AV602" s="32"/>
       <c r="AY602" s="33"/>
     </row>
-    <row r="603" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="603" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR603" s="32"/>
       <c r="AV603" s="32"/>
       <c r="AY603" s="33"/>
     </row>
-    <row r="604" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="604" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR604" s="32"/>
       <c r="AV604" s="32"/>
       <c r="AY604" s="33"/>
     </row>
-    <row r="605" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="605" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR605" s="32"/>
       <c r="AV605" s="32"/>
       <c r="AY605" s="33"/>
     </row>
-    <row r="606" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="606" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR606" s="32"/>
       <c r="AV606" s="32"/>
       <c r="AY606" s="33"/>
     </row>
-    <row r="607" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="607" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR607" s="32"/>
       <c r="AV607" s="32"/>
       <c r="AY607" s="33"/>
     </row>
-    <row r="608" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="608" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR608" s="32"/>
       <c r="AV608" s="32"/>
       <c r="AY608" s="33"/>
     </row>
-    <row r="609" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="609" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR609" s="32"/>
       <c r="AV609" s="32"/>
       <c r="AY609" s="33"/>
     </row>
-    <row r="610" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="610" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR610" s="32"/>
       <c r="AV610" s="32"/>
       <c r="AY610" s="33"/>
     </row>
-    <row r="611" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="611" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR611" s="32"/>
       <c r="AV611" s="32"/>
       <c r="AY611" s="33"/>
     </row>
-    <row r="612" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="612" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR612" s="32"/>
       <c r="AV612" s="32"/>
       <c r="AY612" s="33"/>
     </row>
-    <row r="613" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="613" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR613" s="32"/>
       <c r="AV613" s="32"/>
       <c r="AY613" s="33"/>
     </row>
-    <row r="614" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="614" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR614" s="32"/>
       <c r="AV614" s="32"/>
       <c r="AY614" s="33"/>
     </row>
-    <row r="615" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="615" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR615" s="32"/>
       <c r="AV615" s="32"/>
       <c r="AY615" s="33"/>
     </row>
-    <row r="616" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="616" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR616" s="32"/>
       <c r="AV616" s="32"/>
       <c r="AY616" s="33"/>
     </row>
-    <row r="617" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="617" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR617" s="32"/>
       <c r="AV617" s="32"/>
       <c r="AY617" s="33"/>
     </row>
-    <row r="618" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="618" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR618" s="32"/>
       <c r="AV618" s="32"/>
       <c r="AY618" s="33"/>
     </row>
-    <row r="619" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="619" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR619" s="32"/>
       <c r="AV619" s="32"/>
       <c r="AY619" s="33"/>
     </row>
-    <row r="620" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="620" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR620" s="32"/>
       <c r="AV620" s="32"/>
       <c r="AY620" s="33"/>
     </row>
-    <row r="621" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="621" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR621" s="32"/>
       <c r="AV621" s="32"/>
       <c r="AY621" s="33"/>
     </row>
-    <row r="622" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="622" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR622" s="32"/>
       <c r="AV622" s="32"/>
       <c r="AY622" s="33"/>
     </row>
-    <row r="623" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="623" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR623" s="32"/>
       <c r="AV623" s="32"/>
       <c r="AY623" s="33"/>
     </row>
-    <row r="624" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="624" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR624" s="32"/>
       <c r="AV624" s="32"/>
       <c r="AY624" s="33"/>
     </row>
-    <row r="625" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="625" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR625" s="32"/>
       <c r="AV625" s="32"/>
       <c r="AY625" s="33"/>
     </row>
-    <row r="626" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="626" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR626" s="32"/>
       <c r="AV626" s="32"/>
       <c r="AY626" s="33"/>
     </row>
-    <row r="627" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="627" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR627" s="32"/>
       <c r="AV627" s="32"/>
       <c r="AY627" s="33"/>
     </row>
-    <row r="628" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="628" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR628" s="32"/>
       <c r="AV628" s="32"/>
       <c r="AY628" s="33"/>
     </row>
-    <row r="629" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="629" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR629" s="32"/>
       <c r="AV629" s="32"/>
       <c r="AY629" s="33"/>
     </row>
-    <row r="630" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="630" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR630" s="32"/>
       <c r="AV630" s="32"/>
       <c r="AY630" s="33"/>
     </row>
-    <row r="631" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="631" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR631" s="32"/>
       <c r="AV631" s="32"/>
       <c r="AY631" s="33"/>
     </row>
-    <row r="632" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="632" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR632" s="32"/>
       <c r="AV632" s="32"/>
       <c r="AY632" s="33"/>
     </row>
-    <row r="633" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="633" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR633" s="32"/>
       <c r="AV633" s="32"/>
       <c r="AY633" s="33"/>
     </row>
-    <row r="634" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="634" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR634" s="32"/>
       <c r="AV634" s="32"/>
       <c r="AY634" s="33"/>
     </row>
-    <row r="635" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="635" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR635" s="32"/>
       <c r="AV635" s="32"/>
       <c r="AY635" s="33"/>
     </row>
-    <row r="636" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="636" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR636" s="32"/>
       <c r="AV636" s="32"/>
       <c r="AY636" s="33"/>
     </row>
-    <row r="637" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="637" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR637" s="32"/>
       <c r="AV637" s="32"/>
       <c r="AY637" s="33"/>
     </row>
-    <row r="638" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="638" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR638" s="32"/>
       <c r="AV638" s="32"/>
       <c r="AY638" s="33"/>
     </row>
-    <row r="639" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="639" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR639" s="32"/>
       <c r="AV639" s="32"/>
       <c r="AY639" s="33"/>
     </row>
-    <row r="640" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="640" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR640" s="32"/>
       <c r="AV640" s="32"/>
       <c r="AY640" s="33"/>
     </row>
-    <row r="641" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="641" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR641" s="32"/>
       <c r="AV641" s="32"/>
       <c r="AY641" s="33"/>
     </row>
-    <row r="642" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="642" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR642" s="32"/>
       <c r="AV642" s="32"/>
       <c r="AY642" s="33"/>
     </row>
-    <row r="643" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="643" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR643" s="32"/>
       <c r="AV643" s="32"/>
       <c r="AY643" s="33"/>
     </row>
-    <row r="644" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="644" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR644" s="32"/>
       <c r="AV644" s="32"/>
       <c r="AY644" s="33"/>
     </row>
-    <row r="645" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="645" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR645" s="32"/>
       <c r="AV645" s="32"/>
       <c r="AY645" s="33"/>
     </row>
-    <row r="646" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="646" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR646" s="32"/>
       <c r="AV646" s="32"/>
       <c r="AY646" s="33"/>
     </row>
-    <row r="647" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="647" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR647" s="32"/>
       <c r="AV647" s="32"/>
       <c r="AY647" s="33"/>
     </row>
-    <row r="648" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="648" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR648" s="32"/>
       <c r="AV648" s="32"/>
       <c r="AY648" s="33"/>
     </row>
-    <row r="649" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="649" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR649" s="32"/>
       <c r="AV649" s="32"/>
       <c r="AY649" s="33"/>
     </row>
-    <row r="650" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="650" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR650" s="32"/>
       <c r="AV650" s="32"/>
       <c r="AY650" s="33"/>
     </row>
-    <row r="651" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="651" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR651" s="32"/>
       <c r="AV651" s="32"/>
       <c r="AY651" s="33"/>
     </row>
-    <row r="652" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="652" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR652" s="32"/>
       <c r="AV652" s="32"/>
       <c r="AY652" s="33"/>
     </row>
-    <row r="653" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="653" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR653" s="32"/>
       <c r="AV653" s="32"/>
       <c r="AY653" s="33"/>
     </row>
-    <row r="654" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="654" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR654" s="32"/>
       <c r="AV654" s="32"/>
       <c r="AY654" s="33"/>
     </row>
-    <row r="655" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="655" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR655" s="32"/>
       <c r="AV655" s="32"/>
       <c r="AY655" s="33"/>
     </row>
-    <row r="656" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="656" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR656" s="32"/>
       <c r="AV656" s="32"/>
       <c r="AY656" s="33"/>
     </row>
-    <row r="657" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="657" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR657" s="32"/>
       <c r="AV657" s="32"/>
       <c r="AY657" s="33"/>
     </row>
-    <row r="658" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="658" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR658" s="32"/>
       <c r="AV658" s="32"/>
       <c r="AY658" s="33"/>
     </row>
-    <row r="659" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="659" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR659" s="32"/>
       <c r="AV659" s="32"/>
       <c r="AY659" s="33"/>
     </row>
-    <row r="660" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="660" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR660" s="32"/>
       <c r="AV660" s="32"/>
       <c r="AY660" s="33"/>
     </row>
-    <row r="661" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="661" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR661" s="32"/>
       <c r="AV661" s="32"/>
       <c r="AY661" s="33"/>
     </row>
-    <row r="662" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="662" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR662" s="32"/>
       <c r="AV662" s="32"/>
       <c r="AY662" s="33"/>
     </row>
-    <row r="663" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="663" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR663" s="32"/>
       <c r="AV663" s="32"/>
       <c r="AY663" s="33"/>
     </row>
-    <row r="664" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="664" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR664" s="32"/>
       <c r="AV664" s="32"/>
       <c r="AY664" s="33"/>
     </row>
-    <row r="665" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="665" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR665" s="32"/>
       <c r="AV665" s="32"/>
       <c r="AY665" s="33"/>
     </row>
-    <row r="666" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="666" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR666" s="32"/>
       <c r="AV666" s="32"/>
       <c r="AY666" s="33"/>
     </row>
-    <row r="667" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="667" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR667" s="32"/>
       <c r="AV667" s="32"/>
       <c r="AY667" s="33"/>
     </row>
-    <row r="668" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="668" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR668" s="32"/>
       <c r="AV668" s="32"/>
       <c r="AY668" s="33"/>
     </row>
-    <row r="669" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="669" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR669" s="32"/>
       <c r="AV669" s="32"/>
       <c r="AY669" s="33"/>
     </row>
-    <row r="670" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="670" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR670" s="32"/>
       <c r="AV670" s="32"/>
       <c r="AY670" s="33"/>
     </row>
-    <row r="671" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="671" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR671" s="32"/>
       <c r="AV671" s="32"/>
       <c r="AY671" s="33"/>
     </row>
-    <row r="672" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="672" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR672" s="32"/>
       <c r="AV672" s="32"/>
       <c r="AY672" s="33"/>
     </row>
-    <row r="673" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="673" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR673" s="32"/>
       <c r="AV673" s="32"/>
       <c r="AY673" s="33"/>
     </row>
-    <row r="674" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="674" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR674" s="32"/>
       <c r="AV674" s="32"/>
       <c r="AY674" s="33"/>
     </row>
-    <row r="675" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="675" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR675" s="32"/>
       <c r="AV675" s="32"/>
       <c r="AY675" s="33"/>
     </row>
-    <row r="676" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="676" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR676" s="32"/>
       <c r="AV676" s="32"/>
       <c r="AY676" s="33"/>
     </row>
-    <row r="677" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="677" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR677" s="32"/>
       <c r="AV677" s="32"/>
       <c r="AY677" s="33"/>
     </row>
-    <row r="678" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="678" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR678" s="32"/>
       <c r="AV678" s="32"/>
       <c r="AY678" s="33"/>
     </row>
-    <row r="679" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="679" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR679" s="32"/>
       <c r="AV679" s="32"/>
       <c r="AY679" s="33"/>
     </row>
-    <row r="680" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="680" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR680" s="32"/>
       <c r="AV680" s="32"/>
       <c r="AY680" s="33"/>
     </row>
-    <row r="681" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="681" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR681" s="32"/>
       <c r="AV681" s="32"/>
       <c r="AY681" s="33"/>
     </row>
-    <row r="682" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="682" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR682" s="32"/>
       <c r="AV682" s="32"/>
       <c r="AY682" s="33"/>
     </row>
-    <row r="683" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="683" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR683" s="32"/>
       <c r="AV683" s="32"/>
       <c r="AY683" s="33"/>
     </row>
-    <row r="684" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="684" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR684" s="32"/>
       <c r="AV684" s="32"/>
       <c r="AY684" s="33"/>
     </row>
-    <row r="685" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="685" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR685" s="32"/>
       <c r="AV685" s="32"/>
       <c r="AY685" s="33"/>
     </row>
-    <row r="686" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="686" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR686" s="32"/>
       <c r="AV686" s="32"/>
       <c r="AY686" s="33"/>
     </row>
-    <row r="687" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="687" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR687" s="32"/>
       <c r="AV687" s="32"/>
       <c r="AY687" s="33"/>
     </row>
-    <row r="688" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="688" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR688" s="32"/>
       <c r="AV688" s="32"/>
       <c r="AY688" s="33"/>
     </row>
-    <row r="689" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="689" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR689" s="32"/>
       <c r="AV689" s="32"/>
       <c r="AY689" s="33"/>
     </row>
-    <row r="690" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="690" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR690" s="32"/>
       <c r="AV690" s="32"/>
       <c r="AY690" s="33"/>
     </row>
-    <row r="691" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="691" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR691" s="32"/>
       <c r="AV691" s="32"/>
       <c r="AY691" s="33"/>
     </row>
-    <row r="692" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="692" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR692" s="32"/>
       <c r="AV692" s="32"/>
       <c r="AY692" s="33"/>
     </row>
-    <row r="693" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="693" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR693" s="32"/>
       <c r="AV693" s="32"/>
       <c r="AY693" s="33"/>
     </row>
-    <row r="694" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="694" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR694" s="32"/>
       <c r="AV694" s="32"/>
       <c r="AY694" s="33"/>
     </row>
-    <row r="695" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="695" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR695" s="32"/>
       <c r="AV695" s="32"/>
       <c r="AY695" s="33"/>
     </row>
-    <row r="696" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="696" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR696" s="32"/>
       <c r="AV696" s="32"/>
       <c r="AY696" s="33"/>
     </row>
-    <row r="697" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="697" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR697" s="32"/>
       <c r="AV697" s="32"/>
       <c r="AY697" s="33"/>
     </row>
-    <row r="698" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="698" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR698" s="32"/>
       <c r="AV698" s="32"/>
       <c r="AY698" s="33"/>
     </row>
-    <row r="699" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="699" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR699" s="32"/>
       <c r="AV699" s="32"/>
       <c r="AY699" s="33"/>
     </row>
-    <row r="700" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="700" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR700" s="32"/>
       <c r="AV700" s="32"/>
       <c r="AY700" s="33"/>
     </row>
-    <row r="701" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="701" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR701" s="32"/>
       <c r="AV701" s="32"/>
       <c r="AY701" s="33"/>
     </row>
-    <row r="702" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="702" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR702" s="32"/>
       <c r="AV702" s="32"/>
       <c r="AY702" s="33"/>
     </row>
-    <row r="703" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="703" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR703" s="32"/>
       <c r="AV703" s="32"/>
       <c r="AY703" s="33"/>
     </row>
-    <row r="704" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="704" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR704" s="32"/>
       <c r="AV704" s="32"/>
       <c r="AY704" s="33"/>
     </row>
-    <row r="705" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="705" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR705" s="32"/>
       <c r="AV705" s="32"/>
       <c r="AY705" s="33"/>
     </row>
-    <row r="706" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="706" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR706" s="32"/>
       <c r="AV706" s="32"/>
       <c r="AY706" s="33"/>
     </row>
-    <row r="707" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="707" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR707" s="32"/>
       <c r="AV707" s="32"/>
       <c r="AY707" s="33"/>
     </row>
-    <row r="708" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="708" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR708" s="32"/>
       <c r="AV708" s="32"/>
       <c r="AY708" s="33"/>
     </row>
-    <row r="709" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="709" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR709" s="32"/>
       <c r="AV709" s="32"/>
       <c r="AY709" s="33"/>
     </row>
-    <row r="710" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="710" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR710" s="32"/>
       <c r="AV710" s="32"/>
       <c r="AY710" s="33"/>
     </row>
-    <row r="711" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="711" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR711" s="32"/>
       <c r="AV711" s="32"/>
       <c r="AY711" s="33"/>
     </row>
-    <row r="712" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="712" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR712" s="32"/>
       <c r="AV712" s="32"/>
       <c r="AY712" s="33"/>
     </row>
-    <row r="713" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="713" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR713" s="32"/>
       <c r="AV713" s="32"/>
       <c r="AY713" s="33"/>
     </row>
-    <row r="714" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="714" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR714" s="32"/>
       <c r="AV714" s="32"/>
       <c r="AY714" s="33"/>
     </row>
-    <row r="715" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="715" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR715" s="32"/>
       <c r="AV715" s="32"/>
       <c r="AY715" s="33"/>
     </row>
-    <row r="716" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="716" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR716" s="32"/>
       <c r="AV716" s="32"/>
       <c r="AY716" s="33"/>
     </row>
-    <row r="717" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="717" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR717" s="32"/>
       <c r="AV717" s="32"/>
       <c r="AY717" s="33"/>
     </row>
-    <row r="718" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="718" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR718" s="32"/>
       <c r="AV718" s="32"/>
       <c r="AY718" s="33"/>
     </row>
-    <row r="719" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="719" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR719" s="32"/>
       <c r="AV719" s="32"/>
       <c r="AY719" s="33"/>
     </row>
-    <row r="720" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="720" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR720" s="32"/>
       <c r="AV720" s="32"/>
       <c r="AY720" s="33"/>
     </row>
-    <row r="721" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="721" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR721" s="32"/>
       <c r="AV721" s="32"/>
       <c r="AY721" s="33"/>
     </row>
-    <row r="722" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="722" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR722" s="32"/>
       <c r="AV722" s="32"/>
       <c r="AY722" s="33"/>
     </row>
-    <row r="723" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="723" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR723" s="32"/>
       <c r="AV723" s="32"/>
       <c r="AY723" s="33"/>
     </row>
-    <row r="724" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="724" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR724" s="32"/>
       <c r="AV724" s="32"/>
       <c r="AY724" s="33"/>
     </row>
-    <row r="725" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="725" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR725" s="32"/>
       <c r="AV725" s="32"/>
       <c r="AY725" s="33"/>
     </row>
-    <row r="726" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="726" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR726" s="32"/>
       <c r="AV726" s="32"/>
       <c r="AY726" s="33"/>
     </row>
-    <row r="727" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="727" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR727" s="32"/>
       <c r="AV727" s="32"/>
       <c r="AY727" s="33"/>
     </row>
-    <row r="728" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="728" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR728" s="32"/>
       <c r="AV728" s="32"/>
       <c r="AY728" s="33"/>
     </row>
-    <row r="729" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="729" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR729" s="32"/>
       <c r="AV729" s="32"/>
       <c r="AY729" s="33"/>
     </row>
-    <row r="730" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="730" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR730" s="32"/>
       <c r="AV730" s="32"/>
       <c r="AY730" s="33"/>
     </row>
-    <row r="731" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="731" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR731" s="32"/>
       <c r="AV731" s="32"/>
       <c r="AY731" s="33"/>
     </row>
-    <row r="732" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="732" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR732" s="32"/>
       <c r="AV732" s="32"/>
       <c r="AY732" s="33"/>
     </row>
-    <row r="733" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="733" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR733" s="32"/>
       <c r="AV733" s="32"/>
       <c r="AY733" s="33"/>
     </row>
-    <row r="734" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="734" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR734" s="32"/>
       <c r="AV734" s="32"/>
       <c r="AY734" s="33"/>
     </row>
-    <row r="735" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="735" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR735" s="32"/>
       <c r="AV735" s="32"/>
       <c r="AY735" s="33"/>
     </row>
-    <row r="736" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="736" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR736" s="32"/>
       <c r="AV736" s="32"/>
       <c r="AY736" s="33"/>
     </row>
-    <row r="737" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="737" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR737" s="32"/>
       <c r="AV737" s="32"/>
       <c r="AY737" s="33"/>
     </row>
-    <row r="738" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="738" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR738" s="32"/>
       <c r="AV738" s="32"/>
       <c r="AY738" s="33"/>
     </row>
-    <row r="739" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="739" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR739" s="32"/>
       <c r="AV739" s="32"/>
       <c r="AY739" s="33"/>
     </row>
-    <row r="740" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="740" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR740" s="32"/>
       <c r="AV740" s="32"/>
       <c r="AY740" s="33"/>
     </row>
-    <row r="741" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="741" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR741" s="32"/>
       <c r="AV741" s="32"/>
       <c r="AY741" s="33"/>
     </row>
-    <row r="742" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="742" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR742" s="32"/>
       <c r="AV742" s="32"/>
       <c r="AY742" s="33"/>
     </row>
-    <row r="743" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="743" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR743" s="32"/>
       <c r="AV743" s="32"/>
       <c r="AY743" s="33"/>
     </row>
-    <row r="744" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="744" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR744" s="32"/>
       <c r="AV744" s="32"/>
       <c r="AY744" s="33"/>
     </row>
-    <row r="745" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="745" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR745" s="32"/>
       <c r="AV745" s="32"/>
       <c r="AY745" s="33"/>
     </row>
-    <row r="746" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="746" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR746" s="32"/>
       <c r="AV746" s="32"/>
       <c r="AY746" s="33"/>
     </row>
-    <row r="747" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="747" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR747" s="32"/>
       <c r="AV747" s="32"/>
       <c r="AY747" s="33"/>
     </row>
-    <row r="748" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="748" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR748" s="32"/>
       <c r="AV748" s="32"/>
       <c r="AY748" s="33"/>
     </row>
-    <row r="749" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="749" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR749" s="32"/>
       <c r="AV749" s="32"/>
       <c r="AY749" s="33"/>
     </row>
-    <row r="750" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="750" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR750" s="32"/>
       <c r="AV750" s="32"/>
       <c r="AY750" s="33"/>
     </row>
-    <row r="751" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="751" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR751" s="32"/>
       <c r="AV751" s="32"/>
       <c r="AY751" s="33"/>
     </row>
-    <row r="752" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="752" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR752" s="32"/>
       <c r="AV752" s="32"/>
       <c r="AY752" s="33"/>
     </row>
-    <row r="753" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="753" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR753" s="32"/>
       <c r="AV753" s="32"/>
       <c r="AY753" s="33"/>
     </row>
-    <row r="754" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="754" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR754" s="32"/>
       <c r="AV754" s="32"/>
       <c r="AY754" s="33"/>
     </row>
-    <row r="755" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="755" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR755" s="32"/>
       <c r="AV755" s="32"/>
       <c r="AY755" s="33"/>
     </row>
-    <row r="756" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="756" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR756" s="32"/>
       <c r="AV756" s="32"/>
       <c r="AY756" s="33"/>
     </row>
-    <row r="757" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="757" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR757" s="32"/>
       <c r="AV757" s="32"/>
       <c r="AY757" s="33"/>
     </row>
-    <row r="758" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="758" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR758" s="32"/>
       <c r="AV758" s="32"/>
       <c r="AY758" s="33"/>
     </row>
-    <row r="759" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="759" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR759" s="32"/>
       <c r="AV759" s="32"/>
       <c r="AY759" s="33"/>
     </row>
-    <row r="760" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="760" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR760" s="32"/>
       <c r="AV760" s="32"/>
       <c r="AY760" s="33"/>
     </row>
-    <row r="761" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="761" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR761" s="32"/>
       <c r="AV761" s="32"/>
       <c r="AY761" s="33"/>
     </row>
-    <row r="762" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="762" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR762" s="32"/>
       <c r="AV762" s="32"/>
       <c r="AY762" s="33"/>
     </row>
-    <row r="763" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="763" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR763" s="32"/>
       <c r="AV763" s="32"/>
       <c r="AY763" s="33"/>
     </row>
-    <row r="764" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="764" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR764" s="32"/>
       <c r="AV764" s="32"/>
       <c r="AY764" s="33"/>
     </row>
-    <row r="765" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="765" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR765" s="32"/>
       <c r="AV765" s="32"/>
       <c r="AY765" s="33"/>
     </row>
-    <row r="766" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="766" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR766" s="32"/>
       <c r="AV766" s="32"/>
       <c r="AY766" s="33"/>
     </row>
-    <row r="767" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="767" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR767" s="32"/>
       <c r="AV767" s="32"/>
       <c r="AY767" s="33"/>
     </row>
-    <row r="768" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="768" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR768" s="32"/>
       <c r="AV768" s="32"/>
       <c r="AY768" s="33"/>
     </row>
-    <row r="769" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="769" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR769" s="32"/>
       <c r="AV769" s="32"/>
       <c r="AY769" s="33"/>
     </row>
-    <row r="770" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="770" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR770" s="32"/>
       <c r="AV770" s="32"/>
       <c r="AY770" s="33"/>
     </row>
-    <row r="771" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="771" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR771" s="32"/>
       <c r="AV771" s="32"/>
       <c r="AY771" s="33"/>
     </row>
-    <row r="772" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="772" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR772" s="32"/>
       <c r="AV772" s="32"/>
       <c r="AY772" s="33"/>
     </row>
-    <row r="773" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="773" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR773" s="32"/>
       <c r="AV773" s="32"/>
       <c r="AY773" s="33"/>
     </row>
-    <row r="774" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="774" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR774" s="32"/>
       <c r="AV774" s="32"/>
       <c r="AY774" s="33"/>
     </row>
-    <row r="775" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="775" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR775" s="32"/>
       <c r="AV775" s="32"/>
       <c r="AY775" s="33"/>
     </row>
-    <row r="776" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="776" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR776" s="32"/>
       <c r="AV776" s="32"/>
       <c r="AY776" s="33"/>
     </row>
-    <row r="777" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="777" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR777" s="32"/>
       <c r="AV777" s="32"/>
       <c r="AY777" s="33"/>
     </row>
-    <row r="778" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="778" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR778" s="32"/>
       <c r="AV778" s="32"/>
       <c r="AY778" s="33"/>
     </row>
-    <row r="779" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="779" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR779" s="32"/>
       <c r="AV779" s="32"/>
       <c r="AY779" s="33"/>
     </row>
-    <row r="780" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="780" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR780" s="32"/>
       <c r="AV780" s="32"/>
       <c r="AY780" s="33"/>
     </row>
-    <row r="781" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="781" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR781" s="32"/>
       <c r="AV781" s="32"/>
       <c r="AY781" s="33"/>
     </row>
-    <row r="782" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="782" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR782" s="32"/>
       <c r="AV782" s="32"/>
       <c r="AY782" s="33"/>
     </row>
-    <row r="783" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="783" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR783" s="32"/>
       <c r="AV783" s="32"/>
       <c r="AY783" s="33"/>
     </row>
-    <row r="784" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="784" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR784" s="32"/>
       <c r="AV784" s="32"/>
       <c r="AY784" s="33"/>
     </row>
-    <row r="785" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="785" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR785" s="32"/>
       <c r="AV785" s="32"/>
       <c r="AY785" s="33"/>
     </row>
-    <row r="786" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="786" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR786" s="32"/>
       <c r="AV786" s="32"/>
       <c r="AY786" s="33"/>
     </row>
-    <row r="787" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="787" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR787" s="32"/>
       <c r="AV787" s="32"/>
       <c r="AY787" s="33"/>
     </row>
-    <row r="788" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="788" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR788" s="32"/>
       <c r="AV788" s="32"/>
       <c r="AY788" s="33"/>
     </row>
-    <row r="789" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="789" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR789" s="32"/>
       <c r="AV789" s="32"/>
       <c r="AY789" s="33"/>
     </row>
-    <row r="790" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="790" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR790" s="32"/>
       <c r="AV790" s="32"/>
       <c r="AY790" s="33"/>
     </row>
-    <row r="791" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="791" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR791" s="32"/>
       <c r="AV791" s="32"/>
       <c r="AY791" s="33"/>
     </row>
-    <row r="792" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="792" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR792" s="32"/>
       <c r="AV792" s="32"/>
       <c r="AY792" s="33"/>
     </row>
-    <row r="793" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="793" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR793" s="32"/>
       <c r="AV793" s="32"/>
       <c r="AY793" s="33"/>
     </row>
-    <row r="794" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="794" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR794" s="32"/>
       <c r="AV794" s="32"/>
       <c r="AY794" s="33"/>
     </row>
-    <row r="795" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="795" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR795" s="32"/>
       <c r="AV795" s="32"/>
       <c r="AY795" s="33"/>
     </row>
-    <row r="796" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="796" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR796" s="32"/>
       <c r="AV796" s="32"/>
       <c r="AY796" s="33"/>
     </row>
-    <row r="797" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="797" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR797" s="32"/>
       <c r="AV797" s="32"/>
       <c r="AY797" s="33"/>
     </row>
-    <row r="798" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="798" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR798" s="32"/>
       <c r="AV798" s="32"/>
       <c r="AY798" s="33"/>
     </row>
-    <row r="799" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="799" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR799" s="32"/>
       <c r="AV799" s="32"/>
       <c r="AY799" s="33"/>
     </row>
-    <row r="800" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="800" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR800" s="32"/>
       <c r="AV800" s="32"/>
       <c r="AY800" s="33"/>
     </row>
-    <row r="801" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="801" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR801" s="32"/>
       <c r="AV801" s="32"/>
       <c r="AY801" s="33"/>
     </row>
-    <row r="802" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="802" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR802" s="32"/>
       <c r="AV802" s="32"/>
       <c r="AY802" s="33"/>
     </row>
-    <row r="803" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="803" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR803" s="32"/>
       <c r="AV803" s="32"/>
       <c r="AY803" s="33"/>
     </row>
-    <row r="804" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="804" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR804" s="32"/>
       <c r="AV804" s="32"/>
       <c r="AY804" s="33"/>
     </row>
-    <row r="805" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="805" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR805" s="32"/>
       <c r="AV805" s="32"/>
       <c r="AY805" s="33"/>
     </row>
-    <row r="806" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="806" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR806" s="32"/>
       <c r="AV806" s="32"/>
       <c r="AY806" s="33"/>
     </row>
-    <row r="807" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="807" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR807" s="32"/>
       <c r="AV807" s="32"/>
       <c r="AY807" s="33"/>
     </row>
-    <row r="808" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="808" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR808" s="32"/>
       <c r="AV808" s="32"/>
       <c r="AY808" s="33"/>
     </row>
-    <row r="809" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="809" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR809" s="32"/>
       <c r="AV809" s="32"/>
       <c r="AY809" s="33"/>
     </row>
-    <row r="810" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="810" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR810" s="32"/>
       <c r="AV810" s="32"/>
       <c r="AY810" s="33"/>
     </row>
-    <row r="811" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="811" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR811" s="32"/>
       <c r="AV811" s="32"/>
       <c r="AY811" s="33"/>
     </row>
-    <row r="812" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="812" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR812" s="32"/>
       <c r="AV812" s="32"/>
       <c r="AY812" s="33"/>
     </row>
-    <row r="813" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="813" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR813" s="32"/>
       <c r="AV813" s="32"/>
       <c r="AY813" s="33"/>
     </row>
-    <row r="814" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="814" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR814" s="32"/>
       <c r="AV814" s="32"/>
       <c r="AY814" s="33"/>
     </row>
-    <row r="815" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="815" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR815" s="32"/>
       <c r="AV815" s="32"/>
       <c r="AY815" s="33"/>
     </row>
-    <row r="816" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="816" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR816" s="32"/>
       <c r="AV816" s="32"/>
       <c r="AY816" s="33"/>
     </row>
-    <row r="817" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="817" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR817" s="32"/>
       <c r="AV817" s="32"/>
       <c r="AY817" s="33"/>
     </row>
-    <row r="818" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="818" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR818" s="32"/>
       <c r="AV818" s="32"/>
       <c r="AY818" s="33"/>
     </row>
-    <row r="819" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="819" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR819" s="32"/>
       <c r="AV819" s="32"/>
       <c r="AY819" s="33"/>
     </row>
-    <row r="820" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="820" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR820" s="32"/>
       <c r="AV820" s="32"/>
       <c r="AY820" s="33"/>
     </row>
-    <row r="821" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="821" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR821" s="32"/>
       <c r="AV821" s="32"/>
       <c r="AY821" s="33"/>
     </row>
-    <row r="822" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="822" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR822" s="32"/>
       <c r="AV822" s="32"/>
       <c r="AY822" s="33"/>
     </row>
-    <row r="823" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="823" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR823" s="32"/>
       <c r="AV823" s="32"/>
       <c r="AY823" s="33"/>
     </row>
-    <row r="824" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="824" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR824" s="32"/>
       <c r="AV824" s="32"/>
       <c r="AY824" s="33"/>
     </row>
-    <row r="825" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="825" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR825" s="32"/>
       <c r="AV825" s="32"/>
       <c r="AY825" s="33"/>
     </row>
-    <row r="826" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="826" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR826" s="32"/>
       <c r="AV826" s="32"/>
       <c r="AY826" s="33"/>
     </row>
-    <row r="827" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="827" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR827" s="32"/>
       <c r="AV827" s="32"/>
       <c r="AY827" s="33"/>
     </row>
-    <row r="828" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="828" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR828" s="32"/>
       <c r="AV828" s="32"/>
       <c r="AY828" s="33"/>
     </row>
-    <row r="829" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="829" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR829" s="32"/>
       <c r="AV829" s="32"/>
       <c r="AY829" s="33"/>
     </row>
-    <row r="830" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="830" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR830" s="32"/>
       <c r="AV830" s="32"/>
       <c r="AY830" s="33"/>
     </row>
-    <row r="831" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="831" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR831" s="32"/>
       <c r="AV831" s="32"/>
       <c r="AY831" s="33"/>
     </row>
-    <row r="832" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="832" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR832" s="32"/>
       <c r="AV832" s="32"/>
       <c r="AY832" s="33"/>
     </row>
-    <row r="833" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="833" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR833" s="32"/>
       <c r="AV833" s="32"/>
       <c r="AY833" s="33"/>
     </row>
-    <row r="834" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="834" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR834" s="32"/>
       <c r="AV834" s="32"/>
       <c r="AY834" s="33"/>
     </row>
-    <row r="835" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="835" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR835" s="32"/>
       <c r="AV835" s="32"/>
       <c r="AY835" s="33"/>
     </row>
-    <row r="836" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="836" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR836" s="32"/>
       <c r="AV836" s="32"/>
       <c r="AY836" s="33"/>
     </row>
-    <row r="837" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="837" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR837" s="32"/>
       <c r="AV837" s="32"/>
       <c r="AY837" s="33"/>
     </row>
-    <row r="838" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="838" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR838" s="32"/>
       <c r="AV838" s="32"/>
       <c r="AY838" s="33"/>
     </row>
-    <row r="839" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="839" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR839" s="32"/>
       <c r="AV839" s="32"/>
       <c r="AY839" s="33"/>
     </row>
-    <row r="840" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="840" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR840" s="32"/>
       <c r="AV840" s="32"/>
       <c r="AY840" s="33"/>
     </row>
-    <row r="841" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="841" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR841" s="32"/>
       <c r="AV841" s="32"/>
       <c r="AY841" s="33"/>
     </row>
-    <row r="842" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="842" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR842" s="32"/>
       <c r="AV842" s="32"/>
       <c r="AY842" s="33"/>
     </row>
-    <row r="843" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="843" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR843" s="32"/>
       <c r="AV843" s="32"/>
       <c r="AY843" s="33"/>
     </row>
-    <row r="844" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="844" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR844" s="32"/>
       <c r="AV844" s="32"/>
       <c r="AY844" s="33"/>
     </row>
-    <row r="845" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="845" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR845" s="32"/>
       <c r="AV845" s="32"/>
       <c r="AY845" s="33"/>
     </row>
-    <row r="846" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="846" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR846" s="32"/>
       <c r="AV846" s="32"/>
       <c r="AY846" s="33"/>
     </row>
-    <row r="847" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="847" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR847" s="32"/>
       <c r="AV847" s="32"/>
       <c r="AY847" s="33"/>
     </row>
-    <row r="848" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="848" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR848" s="32"/>
       <c r="AV848" s="32"/>
       <c r="AY848" s="33"/>
     </row>
-    <row r="849" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="849" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR849" s="32"/>
       <c r="AV849" s="32"/>
       <c r="AY849" s="33"/>
     </row>
-    <row r="850" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="850" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR850" s="32"/>
       <c r="AV850" s="32"/>
       <c r="AY850" s="33"/>
     </row>
-    <row r="851" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="851" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR851" s="32"/>
       <c r="AV851" s="32"/>
       <c r="AY851" s="33"/>
     </row>
-    <row r="852" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="852" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR852" s="32"/>
       <c r="AV852" s="32"/>
       <c r="AY852" s="33"/>
     </row>
-    <row r="853" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="853" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR853" s="32"/>
       <c r="AV853" s="32"/>
       <c r="AY853" s="33"/>
     </row>
-    <row r="854" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="854" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR854" s="32"/>
       <c r="AV854" s="32"/>
       <c r="AY854" s="33"/>
     </row>
-    <row r="855" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="855" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR855" s="32"/>
       <c r="AV855" s="32"/>
       <c r="AY855" s="33"/>
     </row>
-    <row r="856" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="856" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR856" s="32"/>
       <c r="AV856" s="32"/>
       <c r="AY856" s="33"/>
     </row>
-    <row r="857" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="857" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR857" s="32"/>
       <c r="AV857" s="32"/>
       <c r="AY857" s="33"/>
     </row>
-    <row r="858" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="858" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR858" s="32"/>
       <c r="AV858" s="32"/>
       <c r="AY858" s="33"/>
     </row>
-    <row r="859" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="859" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR859" s="32"/>
       <c r="AV859" s="32"/>
       <c r="AY859" s="33"/>
     </row>
-    <row r="860" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="860" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR860" s="32"/>
       <c r="AV860" s="32"/>
       <c r="AY860" s="33"/>
     </row>
-    <row r="861" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="861" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR861" s="32"/>
       <c r="AV861" s="32"/>
       <c r="AY861" s="33"/>
     </row>
-    <row r="862" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="862" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR862" s="32"/>
       <c r="AV862" s="32"/>
       <c r="AY862" s="33"/>
     </row>
-    <row r="863" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="863" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR863" s="32"/>
       <c r="AV863" s="32"/>
       <c r="AY863" s="33"/>
     </row>
-    <row r="864" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="864" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR864" s="32"/>
       <c r="AV864" s="32"/>
       <c r="AY864" s="33"/>
     </row>
-    <row r="865" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="865" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR865" s="32"/>
       <c r="AV865" s="32"/>
       <c r="AY865" s="33"/>
     </row>
-    <row r="866" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="866" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR866" s="32"/>
       <c r="AV866" s="32"/>
       <c r="AY866" s="33"/>
     </row>
-    <row r="867" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="867" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR867" s="32"/>
       <c r="AV867" s="32"/>
       <c r="AY867" s="33"/>
     </row>
-    <row r="868" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="868" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR868" s="32"/>
       <c r="AV868" s="32"/>
       <c r="AY868" s="33"/>
     </row>
-    <row r="869" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="869" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR869" s="32"/>
       <c r="AV869" s="32"/>
       <c r="AY869" s="33"/>
     </row>
-    <row r="870" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="870" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR870" s="32"/>
       <c r="AV870" s="32"/>
       <c r="AY870" s="33"/>
     </row>
-    <row r="871" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="871" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR871" s="32"/>
       <c r="AV871" s="32"/>
       <c r="AY871" s="33"/>
     </row>
-    <row r="872" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="872" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR872" s="32"/>
       <c r="AV872" s="32"/>
       <c r="AY872" s="33"/>
     </row>
-    <row r="873" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="873" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR873" s="32"/>
       <c r="AV873" s="32"/>
       <c r="AY873" s="33"/>
     </row>
-    <row r="874" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="874" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR874" s="32"/>
       <c r="AV874" s="32"/>
       <c r="AY874" s="33"/>
     </row>
-    <row r="875" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="875" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR875" s="32"/>
       <c r="AV875" s="32"/>
       <c r="AY875" s="33"/>
     </row>
-    <row r="876" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="876" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR876" s="32"/>
       <c r="AV876" s="32"/>
       <c r="AY876" s="33"/>
     </row>
-    <row r="877" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="877" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR877" s="32"/>
       <c r="AV877" s="32"/>
       <c r="AY877" s="33"/>
     </row>
-    <row r="878" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="878" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR878" s="32"/>
       <c r="AV878" s="32"/>
       <c r="AY878" s="33"/>
     </row>
-    <row r="879" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="879" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR879" s="32"/>
       <c r="AV879" s="32"/>
       <c r="AY879" s="33"/>
     </row>
-    <row r="880" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="880" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR880" s="32"/>
       <c r="AV880" s="32"/>
       <c r="AY880" s="33"/>
     </row>
-    <row r="881" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="881" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR881" s="32"/>
       <c r="AV881" s="32"/>
       <c r="AY881" s="33"/>
     </row>
-    <row r="882" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="882" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR882" s="32"/>
       <c r="AV882" s="32"/>
       <c r="AY882" s="33"/>
     </row>
-    <row r="883" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="883" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR883" s="32"/>
       <c r="AV883" s="32"/>
       <c r="AY883" s="33"/>
     </row>
-    <row r="884" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="884" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR884" s="32"/>
       <c r="AV884" s="32"/>
       <c r="AY884" s="33"/>
     </row>
-    <row r="885" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="885" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR885" s="32"/>
       <c r="AV885" s="32"/>
       <c r="AY885" s="33"/>
     </row>
-    <row r="886" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="886" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR886" s="32"/>
       <c r="AV886" s="32"/>
       <c r="AY886" s="33"/>
     </row>
-    <row r="887" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="887" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR887" s="32"/>
       <c r="AV887" s="32"/>
       <c r="AY887" s="33"/>
     </row>
-    <row r="888" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="888" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR888" s="32"/>
       <c r="AV888" s="32"/>
       <c r="AY888" s="33"/>
     </row>
-    <row r="889" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="889" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR889" s="32"/>
       <c r="AV889" s="32"/>
       <c r="AY889" s="33"/>
     </row>
-    <row r="890" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="890" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR890" s="32"/>
       <c r="AV890" s="32"/>
       <c r="AY890" s="33"/>
     </row>
-    <row r="891" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="891" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR891" s="32"/>
       <c r="AV891" s="32"/>
       <c r="AY891" s="33"/>
     </row>
-    <row r="892" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="892" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR892" s="32"/>
       <c r="AV892" s="32"/>
       <c r="AY892" s="33"/>
     </row>
-    <row r="893" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="893" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR893" s="32"/>
       <c r="AV893" s="32"/>
       <c r="AY893" s="33"/>
     </row>
-    <row r="894" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="894" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR894" s="32"/>
       <c r="AV894" s="32"/>
       <c r="AY894" s="33"/>
     </row>
-    <row r="895" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="895" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR895" s="32"/>
       <c r="AV895" s="32"/>
       <c r="AY895" s="33"/>
     </row>
-    <row r="896" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="896" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR896" s="32"/>
       <c r="AV896" s="32"/>
       <c r="AY896" s="33"/>
     </row>
-    <row r="897" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="897" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR897" s="32"/>
       <c r="AV897" s="32"/>
       <c r="AY897" s="33"/>
     </row>
-    <row r="898" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="898" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR898" s="32"/>
       <c r="AV898" s="32"/>
       <c r="AY898" s="33"/>
     </row>
-    <row r="899" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="899" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR899" s="32"/>
       <c r="AV899" s="32"/>
       <c r="AY899" s="33"/>
     </row>
-    <row r="900" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="900" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR900" s="32"/>
       <c r="AV900" s="32"/>
       <c r="AY900" s="33"/>
     </row>
-    <row r="901" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="901" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR901" s="32"/>
       <c r="AV901" s="32"/>
       <c r="AY901" s="33"/>
     </row>
-    <row r="902" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="902" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR902" s="32"/>
       <c r="AV902" s="32"/>
       <c r="AY902" s="33"/>
     </row>
-    <row r="903" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="903" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR903" s="32"/>
       <c r="AV903" s="32"/>
       <c r="AY903" s="33"/>
     </row>
-    <row r="904" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="904" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR904" s="32"/>
       <c r="AV904" s="32"/>
       <c r="AY904" s="33"/>
     </row>
-    <row r="905" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="905" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR905" s="32"/>
       <c r="AV905" s="32"/>
       <c r="AY905" s="33"/>
     </row>
-    <row r="906" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="906" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR906" s="32"/>
       <c r="AV906" s="32"/>
       <c r="AY906" s="33"/>
     </row>
-    <row r="907" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="907" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR907" s="32"/>
       <c r="AV907" s="32"/>
       <c r="AY907" s="33"/>
     </row>
-    <row r="908" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="908" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR908" s="32"/>
       <c r="AV908" s="32"/>
       <c r="AY908" s="33"/>
     </row>
-    <row r="909" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="909" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR909" s="32"/>
       <c r="AV909" s="32"/>
       <c r="AY909" s="33"/>
     </row>
-    <row r="910" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="910" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR910" s="32"/>
       <c r="AV910" s="32"/>
       <c r="AY910" s="33"/>
     </row>
-    <row r="911" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="911" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR911" s="32"/>
       <c r="AV911" s="32"/>
       <c r="AY911" s="33"/>
     </row>
-    <row r="912" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="912" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR912" s="32"/>
       <c r="AV912" s="32"/>
       <c r="AY912" s="33"/>
     </row>
-    <row r="913" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="913" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR913" s="32"/>
       <c r="AV913" s="32"/>
       <c r="AY913" s="33"/>
     </row>
-    <row r="914" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="914" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR914" s="32"/>
       <c r="AV914" s="32"/>
       <c r="AY914" s="33"/>
     </row>
-    <row r="915" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="915" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR915" s="32"/>
       <c r="AV915" s="32"/>
       <c r="AY915" s="33"/>
     </row>
-    <row r="916" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="916" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR916" s="32"/>
       <c r="AV916" s="32"/>
       <c r="AY916" s="33"/>
     </row>
-    <row r="917" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="917" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR917" s="32"/>
       <c r="AV917" s="32"/>
       <c r="AY917" s="33"/>
     </row>
-    <row r="918" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="918" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR918" s="32"/>
       <c r="AV918" s="32"/>
       <c r="AY918" s="33"/>
     </row>
-    <row r="919" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="919" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR919" s="32"/>
       <c r="AV919" s="32"/>
       <c r="AY919" s="33"/>
     </row>
-    <row r="920" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="920" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR920" s="32"/>
       <c r="AV920" s="32"/>
       <c r="AY920" s="33"/>
     </row>
-    <row r="921" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="921" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR921" s="32"/>
       <c r="AV921" s="32"/>
       <c r="AY921" s="33"/>
     </row>
-    <row r="922" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="922" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR922" s="32"/>
       <c r="AV922" s="32"/>
       <c r="AY922" s="33"/>
     </row>
-    <row r="923" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="923" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR923" s="32"/>
       <c r="AV923" s="32"/>
       <c r="AY923" s="33"/>
     </row>
-    <row r="924" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="924" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR924" s="32"/>
       <c r="AV924" s="32"/>
       <c r="AY924" s="33"/>
     </row>
-    <row r="925" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="925" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR925" s="32"/>
       <c r="AV925" s="32"/>
       <c r="AY925" s="33"/>
     </row>
-    <row r="926" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="926" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR926" s="32"/>
       <c r="AV926" s="32"/>
       <c r="AY926" s="33"/>
     </row>
-    <row r="927" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="927" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR927" s="32"/>
       <c r="AV927" s="32"/>
       <c r="AY927" s="33"/>
     </row>
-    <row r="928" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="928" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR928" s="32"/>
       <c r="AV928" s="32"/>
       <c r="AY928" s="33"/>
     </row>
-    <row r="929" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="929" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR929" s="32"/>
       <c r="AV929" s="32"/>
       <c r="AY929" s="33"/>
     </row>
-    <row r="930" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="930" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR930" s="32"/>
       <c r="AV930" s="32"/>
       <c r="AY930" s="33"/>
     </row>
-    <row r="931" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="931" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR931" s="32"/>
       <c r="AV931" s="32"/>
       <c r="AY931" s="33"/>
     </row>
-    <row r="932" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR932" s="32"/>
       <c r="AV932" s="32"/>
       <c r="AY932" s="33"/>
     </row>
-    <row r="933" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="933" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR933" s="32"/>
       <c r="AV933" s="32"/>
       <c r="AY933" s="33"/>
     </row>
-    <row r="934" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="934" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR934" s="32"/>
       <c r="AV934" s="32"/>
       <c r="AY934" s="33"/>
     </row>
-    <row r="935" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="935" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR935" s="32"/>
       <c r="AV935" s="32"/>
       <c r="AY935" s="33"/>
     </row>
-    <row r="936" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="936" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR936" s="32"/>
       <c r="AV936" s="32"/>
       <c r="AY936" s="33"/>
     </row>
-    <row r="937" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="937" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR937" s="32"/>
       <c r="AV937" s="32"/>
       <c r="AY937" s="33"/>
     </row>
-    <row r="938" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="938" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR938" s="32"/>
       <c r="AV938" s="32"/>
       <c r="AY938" s="33"/>
     </row>
-    <row r="939" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="939" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR939" s="32"/>
       <c r="AV939" s="32"/>
       <c r="AY939" s="33"/>
     </row>
-    <row r="940" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="940" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR940" s="32"/>
       <c r="AV940" s="32"/>
       <c r="AY940" s="33"/>
     </row>
-    <row r="941" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="941" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR941" s="32"/>
       <c r="AV941" s="32"/>
       <c r="AY941" s="33"/>
     </row>
-    <row r="942" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="942" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR942" s="32"/>
       <c r="AV942" s="32"/>
       <c r="AY942" s="33"/>
     </row>
-    <row r="943" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="943" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR943" s="32"/>
       <c r="AV943" s="32"/>
       <c r="AY943" s="33"/>
     </row>
-    <row r="944" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="944" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR944" s="32"/>
       <c r="AV944" s="32"/>
       <c r="AY944" s="33"/>
     </row>
-    <row r="945" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="945" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR945" s="32"/>
       <c r="AV945" s="32"/>
       <c r="AY945" s="33"/>
     </row>
-    <row r="946" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="946" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR946" s="32"/>
       <c r="AV946" s="32"/>
       <c r="AY946" s="33"/>
     </row>
-    <row r="947" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="947" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR947" s="32"/>
       <c r="AV947" s="32"/>
       <c r="AY947" s="33"/>
     </row>
-    <row r="948" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="948" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR948" s="32"/>
       <c r="AV948" s="32"/>
       <c r="AY948" s="33"/>
     </row>
-    <row r="949" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="949" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR949" s="32"/>
       <c r="AV949" s="32"/>
       <c r="AY949" s="33"/>
     </row>
-    <row r="950" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="950" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR950" s="32"/>
       <c r="AV950" s="32"/>
       <c r="AY950" s="33"/>
     </row>
-    <row r="951" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="951" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR951" s="32"/>
       <c r="AV951" s="32"/>
       <c r="AY951" s="33"/>
     </row>
-    <row r="952" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="952" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR952" s="32"/>
       <c r="AV952" s="32"/>
       <c r="AY952" s="33"/>
     </row>
-    <row r="953" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="953" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR953" s="32"/>
       <c r="AV953" s="32"/>
       <c r="AY953" s="33"/>
     </row>
-    <row r="954" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="954" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR954" s="32"/>
       <c r="AV954" s="32"/>
       <c r="AY954" s="33"/>
     </row>
-    <row r="955" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="955" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR955" s="32"/>
       <c r="AV955" s="32"/>
       <c r="AY955" s="33"/>
     </row>
-    <row r="956" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="956" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR956" s="32"/>
       <c r="AV956" s="32"/>
       <c r="AY956" s="33"/>
     </row>
-    <row r="957" spans="44:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="957" spans="44:51" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AR957" s="32"/>
       <c r="AV957" s="32"/>
       <c r="AY957" s="33"/>
@@ -12686,22 +12686,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D2F743-D653-482D-A9CF-63545896FD5D}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" customWidth="1"/>
-    <col min="7" max="7" width="37.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>2</v>
@@ -12728,7 +12728,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="40">
         <v>4</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="42">
         <v>5</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31">
         <v>7</v>
       </c>
@@ -12889,7 +12889,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -12912,7 +12912,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>9</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31">
         <v>10</v>
       </c>
@@ -12958,7 +12958,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="31">
         <v>11</v>
       </c>
@@ -12981,7 +12981,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31">
         <v>12</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31">
         <v>13</v>
       </c>
@@ -13027,7 +13027,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31">
         <v>14</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31">
         <v>15</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31">
         <v>16</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31">
         <v>17</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31">
         <v>18</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="31">
         <v>19</v>
       </c>
@@ -13165,7 +13165,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="31">
         <v>20</v>
       </c>
@@ -13189,7 +13189,7 @@
       </c>
       <c r="H21" s="31"/>
     </row>
-    <row r="22" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31">
         <v>21</v>
       </c>
@@ -13213,7 +13213,7 @@
       </c>
       <c r="H22" s="31"/>
     </row>
-    <row r="23" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31">
         <v>22</v>
       </c>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="H23" s="31"/>
     </row>
-    <row r="24" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31">
         <v>23</v>
       </c>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="H24" s="31"/>
     </row>
-    <row r="25" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31">
         <v>24</v>
       </c>
@@ -13286,7 +13286,7 @@
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
     </row>
-    <row r="26" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="31">
         <v>32</v>
       </c>
@@ -13325,37 +13325,37 @@
   </sheetPr>
   <dimension ref="A1:AM68"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="7" max="7" width="33.1640625" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="32.83203125" customWidth="1"/>
-    <col min="12" max="12" width="22.83203125" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="32.85546875" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
     <col min="17" max="17" width="34" customWidth="1"/>
-    <col min="24" max="24" width="21.5" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" customWidth="1"/>
     <col min="26" max="26" width="20" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="41" customWidth="1"/>
-    <col min="29" max="29" width="16.1640625" customWidth="1"/>
-    <col min="30" max="30" width="27.1640625" customWidth="1"/>
-    <col min="33" max="33" width="29.1640625" customWidth="1"/>
-    <col min="34" max="34" width="71.6640625" customWidth="1"/>
-    <col min="35" max="35" width="26.5" customWidth="1"/>
+    <col min="29" max="29" width="16.140625" customWidth="1"/>
+    <col min="30" max="30" width="27.140625" customWidth="1"/>
+    <col min="33" max="33" width="29.140625" customWidth="1"/>
+    <col min="34" max="34" width="71.7109375" customWidth="1"/>
+    <col min="35" max="35" width="26.42578125" customWidth="1"/>
     <col min="36" max="36" width="85" customWidth="1"/>
-    <col min="37" max="37" width="75.5" customWidth="1"/>
+    <col min="37" max="37" width="75.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>373</v>
       </c>
@@ -13468,7 +13468,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>372</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>-73.174690886400001</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>372</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>-70.659196161799997</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>372</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>-71.646628858900002</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>372</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>-70.718956870400007</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>372</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>-70.809757554800001</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>372</v>
       </c>
@@ -13982,7 +13982,7 @@
         <v>-72.097788240200003</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>372</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>-71.330163502000005</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>372</v>
       </c>
@@ -14141,7 +14141,7 @@
         <v>-70.718956870400007</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>372</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>-70.0109621438</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>372</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>-70.243562478499996</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>372</v>
       </c>
@@ -14396,7 +14396,7 @@
         <v>-72.025446149800004</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>372</v>
       </c>
@@ -14480,7 +14480,7 @@
         <v>-71.123127304999997</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>372</v>
       </c>
@@ -14567,7 +14567,7 @@
         <v>-70.616098163900006</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>372</v>
       </c>
@@ -14647,7 +14647,7 @@
         <v>-69.186038925800005</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>372</v>
       </c>
@@ -14736,7 +14736,7 @@
         <v>-71.820769024399993</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>372</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>-70.616098163900006</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>372</v>
       </c>
@@ -14902,7 +14902,7 @@
         <v>-69.971491087100006</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -14994,7 +14994,7 @@
         <v>-71.060820861899998</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>372</v>
       </c>
@@ -15066,7 +15066,7 @@
         <v>-73.125584144399994</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>372</v>
       </c>
@@ -15149,7 +15149,7 @@
         <v>-71.753339855299998</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>372</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>-72.2757990108</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>372</v>
       </c>
@@ -15316,7 +15316,7 @@
         <v>-72.233593646100005</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>372</v>
       </c>
@@ -15403,7 +15403,7 @@
         <v>-71.992299397099998</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>372</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>-73.104958492799994</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>372</v>
       </c>
@@ -15568,7 +15568,7 @@
         <v>-70.923634825500002</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>372</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>-70.599127450699996</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>372</v>
       </c>
@@ -15736,7 +15736,7 @@
         <v>-71.330163502000005</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>372</v>
       </c>
@@ -15817,7 +15817,7 @@
         <v>-70.656954396499998</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>372</v>
       </c>
@@ -15895,7 +15895,7 @@
         <v>-70.656954396499998</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>372</v>
       </c>
@@ -15970,7 +15970,7 @@
         <v>-70.690008354499994</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>372</v>
       </c>
@@ -16060,7 +16060,7 @@
         <v>-71.332567138900004</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>372</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>-70.6372519122</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>306</v>
       </c>
@@ -16198,7 +16198,7 @@
         <v>-71.056442506400003</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>306</v>
       </c>
@@ -16276,7 +16276,7 @@
         <v>-70.381457830900004</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>306</v>
       </c>
@@ -16348,7 +16348,7 @@
         <v>-72.377516028900004</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>327</v>
       </c>
@@ -16423,7 +16423,7 @@
         <v>-71.352913090200005</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>327</v>
       </c>
@@ -16486,7 +16486,7 @@
         <v>-71.330163502000005</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>327</v>
       </c>
@@ -16549,7 +16549,7 @@
         <v>-71.330163502000005</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>327</v>
       </c>
@@ -16618,7 +16618,7 @@
         <v>-69.186038925800005</v>
       </c>
     </row>
-    <row r="41" spans="1:39" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:39" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="57" t="s">
         <v>372</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>372</v>
       </c>
@@ -16742,7 +16742,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="43" spans="1:39" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:39" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="60" t="s">
         <v>417</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="44" spans="1:39" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:39" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="60" t="s">
         <v>417</v>
       </c>
@@ -16893,7 +16893,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="45" spans="1:39" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:39" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="60" t="s">
         <v>372</v>
       </c>
@@ -16964,7 +16964,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="46" spans="1:39" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:39" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="60" t="s">
         <v>372</v>
       </c>
@@ -17035,7 +17035,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47" s="49" t="s">
         <v>372</v>
       </c>
@@ -17107,7 +17107,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" s="49" t="s">
         <v>372</v>
       </c>
@@ -17181,7 +17181,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49" s="49" t="s">
         <v>372</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50" s="49" t="s">
         <v>417</v>
       </c>
@@ -17321,7 +17321,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A51" s="49" t="s">
         <v>372</v>
       </c>
@@ -17392,7 +17392,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="52" spans="1:37" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:37" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="60" t="s">
         <v>372</v>
       </c>
@@ -17463,7 +17463,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="53" spans="1:37" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:37" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="60" t="s">
         <v>372</v>
       </c>
@@ -17531,7 +17531,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A54" s="49" t="s">
         <v>372</v>
       </c>
@@ -17602,7 +17602,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A55" s="49" t="s">
         <v>372</v>
       </c>
@@ -17682,7 +17682,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A56" s="49" t="s">
         <v>372</v>
       </c>
@@ -17759,7 +17759,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A57" s="49" t="s">
         <v>372</v>
       </c>
@@ -17833,7 +17833,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A58" s="49" t="s">
         <v>372</v>
       </c>
@@ -17901,7 +17901,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A59" s="49" t="s">
         <v>372</v>
       </c>
@@ -17976,7 +17976,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A60" s="49" t="s">
         <v>372</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="61" spans="1:37" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:37" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="60" t="s">
         <v>372</v>
       </c>
@@ -18112,7 +18112,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A62" s="49" t="s">
         <v>372</v>
       </c>
@@ -18186,7 +18186,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A63" s="49" t="s">
         <v>372</v>
       </c>
@@ -18260,7 +18260,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A64" s="49" t="s">
         <v>327</v>
       </c>
@@ -18334,7 +18334,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A65" s="49" t="s">
         <v>372</v>
       </c>
@@ -18411,7 +18411,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A66" s="49" t="s">
         <v>372</v>
       </c>
@@ -18491,7 +18491,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A67" s="49" t="s">
         <v>372</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A68" s="49" t="s">
         <v>372</v>
       </c>
@@ -18730,23 +18730,23 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65.5" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.42578125" customWidth="1"/>
     <col min="10" max="10" width="46" customWidth="1"/>
-    <col min="11" max="11" width="71.83203125" customWidth="1"/>
+    <col min="11" max="11" width="71.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
         <v>375</v>
       </c>
@@ -18787,7 +18787,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18828,7 +18828,7 @@
         <v>-73.174690886400001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18866,7 +18866,7 @@
         <v>-70.659196161799997</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18904,7 +18904,7 @@
         <v>-70.718956870400007</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18942,7 +18942,7 @@
         <v>-70.809757554800001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18980,7 +18980,7 @@
         <v>-72.097788240200003</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -19018,7 +19018,7 @@
         <v>-70.718956870400007</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -19056,7 +19056,7 @@
         <v>-70.243562478499996</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -19094,7 +19094,7 @@
         <v>-71.123127304999997</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -19132,7 +19132,7 @@
         <v>-70.616098163900006</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>-69.186038925800005</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -19208,7 +19208,7 @@
         <v>-71.820769024399993</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -19246,7 +19246,7 @@
         <v>-70.616098163900006</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -19284,7 +19284,7 @@
         <v>-69.971491087100006</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -19322,7 +19322,7 @@
         <v>-71.060820861899998</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -19360,7 +19360,7 @@
         <v>-71.753339855299998</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -19398,7 +19398,7 @@
         <v>-72.2757990108</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -19436,7 +19436,7 @@
         <v>-72.233593646100005</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -19474,7 +19474,7 @@
         <v>-71.992299397099998</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -19512,7 +19512,7 @@
         <v>-73.104958492799994</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -19550,7 +19550,7 @@
         <v>-70.923634825500002</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -19588,7 +19588,7 @@
         <v>-70.599127450699996</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -19626,7 +19626,7 @@
         <v>-70.656954396499998</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -19664,7 +19664,7 @@
         <v>-71.330163502000005</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -19702,7 +19702,7 @@
         <v>-71.332567138900004</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="57">
         <v>32</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>-70.6372519122</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="57">
         <v>33</v>
       </c>
@@ -19772,7 +19772,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>34</v>
       </c>
@@ -19804,7 +19804,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>35</v>
       </c>
@@ -19836,7 +19836,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>36</v>
       </c>
@@ -19868,7 +19868,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>37</v>
       </c>
@@ -19900,7 +19900,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>38</v>
       </c>
@@ -19932,7 +19932,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>39</v>
       </c>
@@ -19964,7 +19964,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>40</v>
       </c>
@@ -19996,7 +19996,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>41</v>
       </c>
@@ -20028,7 +20028,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>42</v>
       </c>
@@ -20060,7 +20060,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>43</v>
       </c>
@@ -20092,7 +20092,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>44</v>
       </c>
@@ -20124,7 +20124,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>45</v>
       </c>
@@ -20156,7 +20156,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>46</v>
       </c>
@@ -20188,7 +20188,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>47</v>
       </c>
@@ -20220,7 +20220,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>48</v>
       </c>
@@ -20252,7 +20252,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>49</v>
       </c>
